--- a/analysis/calc.xlsx
+++ b/analysis/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="accel" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,9 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t xml:space="preserve">s0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rev/s</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t xml:space="preserve">p0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steps</t>
   </si>
   <si>
     <t xml:space="preserve">pos(d)</t>
@@ -165,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,6 +201,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,7 +280,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -371,64 +381,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>0.0125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150000</c:v>
+                  <c:v>0.0375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200000</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250000</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300000</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>350000</c:v>
+                  <c:v>0.0875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400000</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450000</c:v>
+                  <c:v>0.1125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>500000</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>550000</c:v>
+                  <c:v>0.1375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>600000</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>650000</c:v>
+                  <c:v>0.1625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>700000</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>750000</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>800000</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>850000</c:v>
+                  <c:v>0.2125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>900000</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>950000</c:v>
+                  <c:v>0.2375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1000000</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,61 +453,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.95773934819386E-011</c:v>
+                  <c:v>1.15506621543438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6393202250021E-011</c:v>
+                  <c:v>4.50719893275124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.64885899083011E-010</c:v>
+                  <c:v>9.72826804589764</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.76393202250021E-010</c:v>
+                  <c:v>16.3071989327512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4E-010</c:v>
+                  <c:v>23.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.23606797749979E-010</c:v>
+                  <c:v>30.8928010672488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.35114100916989E-010</c:v>
+                  <c:v>37.4717319541024</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.23606797749979E-010</c:v>
+                  <c:v>42.6928010672488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.80422606518061E-010</c:v>
+                  <c:v>46.0449337845656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8E-010</c:v>
+                  <c:v>47.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.80422606518061E-010</c:v>
+                  <c:v>46.0449337845656</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.23606797749979E-010</c:v>
+                  <c:v>42.6928010672488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.35114100916989E-010</c:v>
+                  <c:v>37.4717319541024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.23606797749979E-010</c:v>
+                  <c:v>30.8928010672488</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4E-010</c:v>
+                  <c:v>23.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.76393202250021E-010</c:v>
+                  <c:v>16.3071989327512</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.64885899083011E-010</c:v>
+                  <c:v>9.72826804589762</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.63932022500211E-011</c:v>
+                  <c:v>4.50719893275124</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.95773934819386E-011</c:v>
+                  <c:v>1.15506621543438</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -507,11 +517,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41091223"/>
-        <c:axId val="46931171"/>
+        <c:axId val="70826526"/>
+        <c:axId val="25080746"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41091223"/>
+        <c:axId val="70826526"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,12 +549,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46931171"/>
+        <c:crossAx val="25080746"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46931171"/>
+        <c:axId val="25080746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,7 +591,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41091223"/>
+        <c:crossAx val="70826526"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -608,7 +618,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -709,64 +719,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>0.0125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150000</c:v>
+                  <c:v>0.0375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200000</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250000</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300000</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>350000</c:v>
+                  <c:v>0.0875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400000</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450000</c:v>
+                  <c:v>0.1125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>500000</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>550000</c:v>
+                  <c:v>0.1375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>600000</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>650000</c:v>
+                  <c:v>0.1625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>700000</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>750000</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>800000</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>850000</c:v>
+                  <c:v>0.2125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>900000</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>950000</c:v>
+                  <c:v>0.2375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1000000</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,78 +788,78 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.27367138330685E-007</c:v>
+                  <c:v>0.104828665290378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.58042864845444E-006</c:v>
+                  <c:v>0.138061322564703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4963785199516E-006</c:v>
+                  <c:v>0.225321583169286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.94538617087474E-005</c:v>
+                  <c:v>0.386944460204025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.63380227632419E-005</c:v>
+                  <c:v>0.635985835757818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.94538617087474E-005</c:v>
+                  <c:v>0.976944460204025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.84963785199516E-005</c:v>
+                  <c:v>1.40532158316929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000122580428648454</c:v>
+                  <c:v>1.9080613225647</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000160327367138331</c:v>
+                  <c:v>2.46482866529038</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0002</c:v>
+                  <c:v>3.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.000239672632861669</c:v>
+                  <c:v>3.63517133470962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.000277419571351546</c:v>
+                  <c:v>4.1919386774353</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.000311503621480048</c:v>
+                  <c:v>4.69467841683071</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.000340546138291252</c:v>
+                  <c:v>5.12305553979598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.000363661977236758</c:v>
+                  <c:v>5.46401416424218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.000380546138291253</c:v>
+                  <c:v>5.71305553979598</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.000391503621480048</c:v>
+                  <c:v>5.87467841683071</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.000397419571351545</c:v>
+                  <c:v>5.9619386774353</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.000399672632861669</c:v>
+                  <c:v>5.99517133470962</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78877570"/>
-        <c:axId val="22459815"/>
+        <c:axId val="54513573"/>
+        <c:axId val="95723841"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78877570"/>
+        <c:axId val="54513573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,12 +887,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22459815"/>
+        <c:crossAx val="95723841"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22459815"/>
+        <c:axId val="95723841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +929,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78877570"/>
+        <c:crossAx val="54513573"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -946,7 +956,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1047,64 +1057,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>0.0125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150000</c:v>
+                  <c:v>0.0375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200000</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250000</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300000</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>350000</c:v>
+                  <c:v>0.0875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400000</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450000</c:v>
+                  <c:v>0.1125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>500000</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>550000</c:v>
+                  <c:v>0.1375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>600000</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>650000</c:v>
+                  <c:v>0.1625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>700000</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>750000</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>800000</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>850000</c:v>
+                  <c:v>0.2125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>900000</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>950000</c:v>
+                  <c:v>0.2375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1000000</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,75 +1129,75 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00409882994455124</c:v>
+                  <c:v>0.00126511443542052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0649375814498452</c:v>
+                  <c:v>0.0027394573315963</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.323391384744575</c:v>
+                  <c:v>0.00494250573124562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.998878399332956</c:v>
+                  <c:v>0.00868336409754028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.36788163576622</c:v>
+                  <c:v>0.0149815635318879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7368848721995</c:v>
+                  <c:v>0.0249672629662356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.41237188678787</c:v>
+                  <c:v>0.0397706213325303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.6708256900826</c:v>
+                  <c:v>0.0604111697321796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.7316644415879</c:v>
+                  <c:v>0.0876980126283554</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.7357632715324</c:v>
+                  <c:v>0.122150627063776</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.7316644415879</c:v>
+                  <c:v>0.163948012628355</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.6708256900826</c:v>
+                  <c:v>0.21291116973218</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.4123718867879</c:v>
+                  <c:v>0.26852062133253</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84.7368848721995</c:v>
+                  <c:v>0.329967262966236</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>102.367881635766</c:v>
+                  <c:v>0.396231563531888</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120.998878399333</c:v>
+                  <c:v>0.46618336409754</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140.323391384745</c:v>
+                  <c:v>0.538692505731246</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160.06493758145</c:v>
+                  <c:v>0.612739457331596</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>180.004098829945</c:v>
+                  <c:v>0.687515114435421</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200</c:v>
+                  <c:v>0.7625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="69556045"/>
-        <c:axId val="18590978"/>
+        <c:axId val="11614556"/>
+        <c:axId val="91390704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69556045"/>
+        <c:axId val="11614556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,12 +1225,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18590978"/>
+        <c:crossAx val="91390704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18590978"/>
+        <c:axId val="91390704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1267,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69556045"/>
+        <c:crossAx val="11614556"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1284,7 +1294,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1385,64 +1395,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>0.0375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600000</c:v>
+                  <c:v>0.1125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1200000</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1400000</c:v>
+                  <c:v>0.2625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1600000</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1800000</c:v>
+                  <c:v>0.3375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000000</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2200000</c:v>
+                  <c:v>0.4125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2400000</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2600000</c:v>
+                  <c:v>0.4875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2800000</c:v>
+                  <c:v>0.525</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3000000</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3200000</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3400000</c:v>
+                  <c:v>0.6375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3600000</c:v>
+                  <c:v>0.675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3800000</c:v>
+                  <c:v>0.7125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4000000</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,11 +1531,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47811130"/>
-        <c:axId val="97694137"/>
+        <c:axId val="67329083"/>
+        <c:axId val="36090365"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47811130"/>
+        <c:axId val="67329083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,12 +1563,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97694137"/>
+        <c:crossAx val="36090365"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97694137"/>
+        <c:axId val="36090365"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47811130"/>
+        <c:crossAx val="67329083"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1622,7 +1632,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1723,64 +1733,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>0.0375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600000</c:v>
+                  <c:v>0.1125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1200000</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1400000</c:v>
+                  <c:v>0.2625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1600000</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1800000</c:v>
+                  <c:v>0.3375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000000</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2200000</c:v>
+                  <c:v>0.4125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2400000</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2600000</c:v>
+                  <c:v>0.4875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2800000</c:v>
+                  <c:v>0.525</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3000000</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3200000</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3400000</c:v>
+                  <c:v>0.6375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3600000</c:v>
+                  <c:v>0.675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3800000</c:v>
+                  <c:v>0.7125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4000000</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,78 +1802,78 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="92003538"/>
-        <c:axId val="85526478"/>
+        <c:axId val="19946584"/>
+        <c:axId val="53703441"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92003538"/>
+        <c:axId val="19946584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,12 +1901,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85526478"/>
+        <c:crossAx val="53703441"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85526478"/>
+        <c:axId val="53703441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92003538"/>
+        <c:crossAx val="19946584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1960,7 +1970,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2061,64 +2071,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>0.0375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600000</c:v>
+                  <c:v>0.1125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1200000</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1400000</c:v>
+                  <c:v>0.2625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1600000</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1800000</c:v>
+                  <c:v>0.3375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000000</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2200000</c:v>
+                  <c:v>0.4125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2400000</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2600000</c:v>
+                  <c:v>0.4875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2800000</c:v>
+                  <c:v>0.525</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3000000</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3200000</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3400000</c:v>
+                  <c:v>0.6375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3600000</c:v>
+                  <c:v>0.675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3800000</c:v>
+                  <c:v>0.7125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4000000</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,78 +2140,78 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>0.7625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280</c:v>
+                  <c:v>0.9875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>360</c:v>
+                  <c:v>1.2125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440</c:v>
+                  <c:v>1.4375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>520</c:v>
+                  <c:v>1.6625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>1.8875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>680</c:v>
+                  <c:v>2.1125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>760</c:v>
+                  <c:v>2.3375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>840</c:v>
+                  <c:v>2.5625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>920</c:v>
+                  <c:v>2.7875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1000</c:v>
+                  <c:v>3.0125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1080</c:v>
+                  <c:v>3.2375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1160</c:v>
+                  <c:v>3.4625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1240</c:v>
+                  <c:v>3.6875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1320</c:v>
+                  <c:v>3.9125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1400</c:v>
+                  <c:v>4.1375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1480</c:v>
+                  <c:v>4.3625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1560</c:v>
+                  <c:v>4.5875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1640</c:v>
+                  <c:v>4.8125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1720</c:v>
+                  <c:v>5.0375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1800</c:v>
+                  <c:v>5.2625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25405921"/>
-        <c:axId val="94197792"/>
+        <c:axId val="28863073"/>
+        <c:axId val="79577361"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25405921"/>
+        <c:axId val="28863073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,12 +2239,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94197792"/>
+        <c:crossAx val="79577361"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94197792"/>
+        <c:axId val="79577361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2281,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25405921"/>
+        <c:crossAx val="28863073"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2298,7 +2308,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2399,64 +2409,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107500</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215000</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322500</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>430000</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>537500</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>645000</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>752500</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>860000</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>967500</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1075000</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1182500</c:v>
+                  <c:v>0.275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1290000</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1397500</c:v>
+                  <c:v>0.325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1505000</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1612500</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1720000</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1827500</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1935000</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2042500</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2150000</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2471,61 +2481,61 @@
                   <c:v>-0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.10576441020399E-012</c:v>
+                  <c:v>-0.577533107717188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.55317219767539E-011</c:v>
+                  <c:v>-2.25359946637562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.66911158525631E-011</c:v>
+                  <c:v>-4.86413402294882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.28554977790707E-010</c:v>
+                  <c:v>-8.15359946637562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.86046511627907E-010</c:v>
+                  <c:v>-11.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.43538045465106E-010</c:v>
+                  <c:v>-15.4464005336244</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.95401907403251E-010</c:v>
+                  <c:v>-18.7358659770512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.3656130127906E-010</c:v>
+                  <c:v>-21.3464005336244</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.6298725884561E-010</c:v>
+                  <c:v>-23.0224668922828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.72093023255814E-010</c:v>
+                  <c:v>-23.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.6298725884561E-010</c:v>
+                  <c:v>-23.0224668922828</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.3656130127906E-010</c:v>
+                  <c:v>-21.3464005336244</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.95401907403251E-010</c:v>
+                  <c:v>-18.7358659770512</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.43538045465106E-010</c:v>
+                  <c:v>-15.4464005336244</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.86046511627907E-010</c:v>
+                  <c:v>-11.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.28554977790707E-010</c:v>
+                  <c:v>-8.15359946637562</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.66911158525631E-011</c:v>
+                  <c:v>-4.86413402294881</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.5531721976754E-011</c:v>
+                  <c:v>-2.25359946637562</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.10576441020399E-012</c:v>
+                  <c:v>-0.577533107717188</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-0</c:v>
@@ -2535,11 +2545,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25845920"/>
-        <c:axId val="94083608"/>
+        <c:axId val="37746313"/>
+        <c:axId val="42561198"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25845920"/>
+        <c:axId val="37746313"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,12 +2577,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94083608"/>
+        <c:crossAx val="42561198"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94083608"/>
+        <c:axId val="42561198"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2619,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25845920"/>
+        <c:crossAx val="37746313"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2636,7 +2646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2737,64 +2747,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107500</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215000</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322500</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>430000</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>537500</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>645000</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>752500</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>860000</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>967500</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1075000</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1182500</c:v>
+                  <c:v>0.275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1290000</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1397500</c:v>
+                  <c:v>0.325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1505000</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1612500</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1720000</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1827500</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1935000</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2042500</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2150000</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2806,78 +2816,78 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000399672632861669</c:v>
+                  <c:v>5.99517133470962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000397419571351545</c:v>
+                  <c:v>5.9619386774353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000391503621480048</c:v>
+                  <c:v>5.87467841683071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000380546138291252</c:v>
+                  <c:v>5.71305553979598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000363661977236758</c:v>
+                  <c:v>5.46401416424218</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000340546138291252</c:v>
+                  <c:v>5.12305553979598</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000311503621480048</c:v>
+                  <c:v>4.69467841683071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000277419571351545</c:v>
+                  <c:v>4.1919386774353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000239672632861669</c:v>
+                  <c:v>3.63517133470962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0002</c:v>
+                  <c:v>3.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.000160327367138331</c:v>
+                  <c:v>2.46482866529038</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.000122580428648454</c:v>
+                  <c:v>1.9080613225647</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.84963785199515E-005</c:v>
+                  <c:v>1.40532158316929</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.94538617087474E-005</c:v>
+                  <c:v>0.976944460204024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.63380227632418E-005</c:v>
+                  <c:v>0.635985835757817</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.94538617087474E-005</c:v>
+                  <c:v>0.386944460204024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.49637851995158E-006</c:v>
+                  <c:v>0.225321583169286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.58042864845437E-006</c:v>
+                  <c:v>0.138061322564703</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.27367138330641E-007</c:v>
+                  <c:v>0.104828665290377</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70094341"/>
-        <c:axId val="366318"/>
+        <c:axId val="77418889"/>
+        <c:axId val="34658569"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70094341"/>
+        <c:axId val="77418889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2905,12 +2915,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366318"/>
+        <c:crossAx val="34658569"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="366318"/>
+        <c:axId val="34658569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2957,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70094341"/>
+        <c:crossAx val="77418889"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2974,7 +2984,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3075,64 +3085,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107500</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215000</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322500</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>430000</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>537500</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>645000</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>752500</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>860000</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>967500</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1075000</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1182500</c:v>
+                  <c:v>0.275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1290000</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1397500</c:v>
+                  <c:v>0.325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1505000</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1612500</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1720000</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1827500</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1935000</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2042500</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2150000</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,78 +3154,78 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1800</c:v>
+                  <c:v>5.2625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1842.99118751562</c:v>
+                  <c:v>5.41246977112916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1885.86038419988</c:v>
+                  <c:v>5.56202108533681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1928.3047085228</c:v>
+                  <c:v>5.71011498853751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1969.85241144143</c:v>
+                  <c:v>5.85513327180492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2009.9090544831</c:v>
+                  <c:v>5.99503687293622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2047.81569752477</c:v>
+                  <c:v>6.12756547406753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2082.91340044341</c:v>
+                  <c:v>6.25045875733494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2114.60772476632</c:v>
+                  <c:v>6.36167766053564</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2142.42692145058</c:v>
+                  <c:v>6.45960397474329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2166.0681089662</c:v>
+                  <c:v>6.54319874587245</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2185.42692145059</c:v>
+                  <c:v>6.61210397474329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2200.60772476632</c:v>
+                  <c:v>6.66667766053564</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2211.91340044341</c:v>
+                  <c:v>6.70795875733494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2219.81569752477</c:v>
+                  <c:v>6.73756547406753</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2224.9090544831</c:v>
+                  <c:v>6.75753687293622</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2227.85241144143</c:v>
+                  <c:v>6.77013327180492</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2229.3047085228</c:v>
+                  <c:v>6.77761498853751</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2229.86038419988</c:v>
+                  <c:v>6.78202108533681</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2229.99118751562</c:v>
+                  <c:v>6.78496977112916</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2230</c:v>
+                  <c:v>6.7875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="32974328"/>
-        <c:axId val="19477150"/>
+        <c:axId val="82771870"/>
+        <c:axId val="75102727"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32974328"/>
+        <c:axId val="82771870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,12 +3253,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19477150"/>
+        <c:crossAx val="75102727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19477150"/>
+        <c:axId val="75102727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,7 +3295,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32974328"/>
+        <c:crossAx val="82771870"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3604,8 +3614,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3615,54 +3625,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <f aca="false">6-B1</f>
+        <v>5.9</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0.0004</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1000000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">d*(0.5*s+s0)+p0</f>
-        <v>200</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">B6-B4</f>
-        <v>200</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>20</v>
@@ -3673,16 +3696,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -3704,7 +3727,7 @@
       </c>
       <c r="C11" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A11/d)*d*s/(d*PI())+s*$A11/d+s0</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A11/d)*d^2*s/(d*PI()^2)+0.5*s*$A11^2/d+s0*$A11-0.25*d*s/PI()^2</f>
@@ -3722,19 +3745,19 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A12)</f>
-        <v>50000</v>
+        <v>0.0125</v>
       </c>
       <c r="B12" s="6" t="n">
         <f aca="false">s/d*(1-COS($A12/d*2*PI()))</f>
-        <v>1.95773934819386E-011</v>
+        <v>1.15506621543438</v>
       </c>
       <c r="C12" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A12/d)*d*s/(d*PI())+s*$A12/d+s0</f>
-        <v>3.27367138330685E-007</v>
+        <v>0.104828665290378</v>
       </c>
       <c r="D12" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A12/d)*d^2*s/(d*PI()^2)+0.5*s*$A12^2/d+s0*$A12-0.25*d*s/PI()^2</f>
-        <v>0.00409882994455124</v>
+        <v>0.00126511443542052</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3742,19 +3765,19 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A13)</f>
-        <v>100000</v>
+        <v>0.025</v>
       </c>
       <c r="B13" s="6" t="n">
         <f aca="false">s/d*(1-COS($A13/d*2*PI()))</f>
-        <v>7.6393202250021E-011</v>
+        <v>4.50719893275124</v>
       </c>
       <c r="C13" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A13/d)*d*s/(d*PI())+s*$A13/d+s0</f>
-        <v>2.58042864845444E-006</v>
+        <v>0.138061322564703</v>
       </c>
       <c r="D13" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A13/d)*d^2*s/(d*PI()^2)+0.5*s*$A13^2/d+s0*$A13-0.25*d*s/PI()^2</f>
-        <v>0.0649375814498452</v>
+        <v>0.0027394573315963</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -3762,313 +3785,313 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A14)</f>
-        <v>150000</v>
+        <v>0.0375</v>
       </c>
       <c r="B14" s="6" t="n">
         <f aca="false">s/d*(1-COS($A14/d*2*PI()))</f>
-        <v>1.64885899083011E-010</v>
+        <v>9.72826804589764</v>
       </c>
       <c r="C14" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A14/d)*d*s/(d*PI())+s*$A14/d+s0</f>
-        <v>8.4963785199516E-006</v>
+        <v>0.225321583169286</v>
       </c>
       <c r="D14" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A14/d)*d^2*s/(d*PI()^2)+0.5*s*$A14^2/d+s0*$A14-0.25*d*s/PI()^2</f>
-        <v>0.323391384744575</v>
+        <v>0.00494250573124562</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A15)</f>
-        <v>200000</v>
+        <v>0.05</v>
       </c>
       <c r="B15" s="6" t="n">
         <f aca="false">s/d*(1-COS($A15/d*2*PI()))</f>
-        <v>2.76393202250021E-010</v>
+        <v>16.3071989327512</v>
       </c>
       <c r="C15" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A15/d)*d*s/(d*PI())+s*$A15/d+s0</f>
-        <v>1.94538617087474E-005</v>
+        <v>0.386944460204025</v>
       </c>
       <c r="D15" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A15/d)*d^2*s/(d*PI()^2)+0.5*s*$A15^2/d+s0*$A15-0.25*d*s/PI()^2</f>
-        <v>0.998878399332956</v>
+        <v>0.00868336409754028</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A16)</f>
-        <v>250000</v>
+        <v>0.0625</v>
       </c>
       <c r="B16" s="6" t="n">
         <f aca="false">s/d*(1-COS($A16/d*2*PI()))</f>
-        <v>4E-010</v>
+        <v>23.6</v>
       </c>
       <c r="C16" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A16/d)*d*s/(d*PI())+s*$A16/d+s0</f>
-        <v>3.63380227632419E-005</v>
+        <v>0.635985835757818</v>
       </c>
       <c r="D16" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A16/d)*d^2*s/(d*PI()^2)+0.5*s*$A16^2/d+s0*$A16-0.25*d*s/PI()^2</f>
-        <v>2.36788163576622</v>
+        <v>0.0149815635318879</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A17)</f>
-        <v>300000</v>
+        <v>0.075</v>
       </c>
       <c r="B17" s="6" t="n">
         <f aca="false">s/d*(1-COS($A17/d*2*PI()))</f>
-        <v>5.23606797749979E-010</v>
+        <v>30.8928010672488</v>
       </c>
       <c r="C17" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A17/d)*d*s/(d*PI())+s*$A17/d+s0</f>
-        <v>5.94538617087474E-005</v>
+        <v>0.976944460204025</v>
       </c>
       <c r="D17" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A17/d)*d^2*s/(d*PI()^2)+0.5*s*$A17^2/d+s0*$A17-0.25*d*s/PI()^2</f>
-        <v>4.7368848721995</v>
+        <v>0.0249672629662356</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A18)</f>
-        <v>350000</v>
+        <v>0.0875</v>
       </c>
       <c r="B18" s="6" t="n">
         <f aca="false">s/d*(1-COS($A18/d*2*PI()))</f>
-        <v>6.35114100916989E-010</v>
+        <v>37.4717319541024</v>
       </c>
       <c r="C18" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A18/d)*d*s/(d*PI())+s*$A18/d+s0</f>
-        <v>8.84963785199516E-005</v>
+        <v>1.40532158316929</v>
       </c>
       <c r="D18" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A18/d)*d^2*s/(d*PI()^2)+0.5*s*$A18^2/d+s0*$A18-0.25*d*s/PI()^2</f>
-        <v>8.41237188678787</v>
+        <v>0.0397706213325303</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A19)</f>
-        <v>400000</v>
+        <v>0.1</v>
       </c>
       <c r="B19" s="6" t="n">
         <f aca="false">s/d*(1-COS($A19/d*2*PI()))</f>
-        <v>7.23606797749979E-010</v>
+        <v>42.6928010672488</v>
       </c>
       <c r="C19" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A19/d)*d*s/(d*PI())+s*$A19/d+s0</f>
-        <v>0.000122580428648454</v>
+        <v>1.9080613225647</v>
       </c>
       <c r="D19" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A19/d)*d^2*s/(d*PI()^2)+0.5*s*$A19^2/d+s0*$A19-0.25*d*s/PI()^2</f>
-        <v>13.6708256900826</v>
+        <v>0.0604111697321796</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A20)</f>
-        <v>450000</v>
+        <v>0.1125</v>
       </c>
       <c r="B20" s="6" t="n">
         <f aca="false">s/d*(1-COS($A20/d*2*PI()))</f>
-        <v>7.80422606518061E-010</v>
+        <v>46.0449337845656</v>
       </c>
       <c r="C20" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A20/d)*d*s/(d*PI())+s*$A20/d+s0</f>
-        <v>0.000160327367138331</v>
+        <v>2.46482866529038</v>
       </c>
       <c r="D20" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A20/d)*d^2*s/(d*PI()^2)+0.5*s*$A20^2/d+s0*$A20-0.25*d*s/PI()^2</f>
-        <v>20.7316644415879</v>
+        <v>0.0876980126283554</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A21)</f>
-        <v>500000</v>
+        <v>0.125</v>
       </c>
       <c r="B21" s="6" t="n">
         <f aca="false">s/d*(1-COS($A21/d*2*PI()))</f>
-        <v>8E-010</v>
+        <v>47.2</v>
       </c>
       <c r="C21" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A21/d)*d*s/(d*PI())+s*$A21/d+s0</f>
-        <v>0.0002</v>
+        <v>3.05</v>
       </c>
       <c r="D21" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A21/d)*d^2*s/(d*PI()^2)+0.5*s*$A21^2/d+s0*$A21-0.25*d*s/PI()^2</f>
-        <v>29.7357632715324</v>
+        <v>0.122150627063776</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A22)</f>
-        <v>550000</v>
+        <v>0.1375</v>
       </c>
       <c r="B22" s="6" t="n">
         <f aca="false">s/d*(1-COS($A22/d*2*PI()))</f>
-        <v>7.80422606518061E-010</v>
+        <v>46.0449337845656</v>
       </c>
       <c r="C22" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A22/d)*d*s/(d*PI())+s*$A22/d+s0</f>
-        <v>0.000239672632861669</v>
+        <v>3.63517133470962</v>
       </c>
       <c r="D22" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A22/d)*d^2*s/(d*PI()^2)+0.5*s*$A22^2/d+s0*$A22-0.25*d*s/PI()^2</f>
-        <v>40.7316644415879</v>
+        <v>0.163948012628355</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A23)</f>
-        <v>600000</v>
+        <v>0.15</v>
       </c>
       <c r="B23" s="6" t="n">
         <f aca="false">s/d*(1-COS($A23/d*2*PI()))</f>
-        <v>7.23606797749979E-010</v>
+        <v>42.6928010672488</v>
       </c>
       <c r="C23" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A23/d)*d*s/(d*PI())+s*$A23/d+s0</f>
-        <v>0.000277419571351546</v>
+        <v>4.1919386774353</v>
       </c>
       <c r="D23" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A23/d)*d^2*s/(d*PI()^2)+0.5*s*$A23^2/d+s0*$A23-0.25*d*s/PI()^2</f>
-        <v>53.6708256900826</v>
+        <v>0.21291116973218</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A24)</f>
-        <v>650000</v>
+        <v>0.1625</v>
       </c>
       <c r="B24" s="6" t="n">
         <f aca="false">s/d*(1-COS($A24/d*2*PI()))</f>
-        <v>6.35114100916989E-010</v>
+        <v>37.4717319541024</v>
       </c>
       <c r="C24" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A24/d)*d*s/(d*PI())+s*$A24/d+s0</f>
-        <v>0.000311503621480048</v>
+        <v>4.69467841683071</v>
       </c>
       <c r="D24" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A24/d)*d^2*s/(d*PI()^2)+0.5*s*$A24^2/d+s0*$A24-0.25*d*s/PI()^2</f>
-        <v>68.4123718867879</v>
+        <v>0.26852062133253</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A25)</f>
-        <v>700000</v>
+        <v>0.175</v>
       </c>
       <c r="B25" s="6" t="n">
         <f aca="false">s/d*(1-COS($A25/d*2*PI()))</f>
-        <v>5.23606797749979E-010</v>
+        <v>30.8928010672488</v>
       </c>
       <c r="C25" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A25/d)*d*s/(d*PI())+s*$A25/d+s0</f>
-        <v>0.000340546138291252</v>
+        <v>5.12305553979598</v>
       </c>
       <c r="D25" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A25/d)*d^2*s/(d*PI()^2)+0.5*s*$A25^2/d+s0*$A25-0.25*d*s/PI()^2</f>
-        <v>84.7368848721995</v>
+        <v>0.329967262966236</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A26)</f>
-        <v>750000</v>
+        <v>0.1875</v>
       </c>
       <c r="B26" s="6" t="n">
         <f aca="false">s/d*(1-COS($A26/d*2*PI()))</f>
-        <v>4E-010</v>
+        <v>23.6</v>
       </c>
       <c r="C26" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A26/d)*d*s/(d*PI())+s*$A26/d+s0</f>
-        <v>0.000363661977236758</v>
+        <v>5.46401416424218</v>
       </c>
       <c r="D26" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A26/d)*d^2*s/(d*PI()^2)+0.5*s*$A26^2/d+s0*$A26-0.25*d*s/PI()^2</f>
-        <v>102.367881635766</v>
+        <v>0.396231563531888</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A27)</f>
-        <v>800000</v>
+        <v>0.2</v>
       </c>
       <c r="B27" s="6" t="n">
         <f aca="false">s/d*(1-COS($A27/d*2*PI()))</f>
-        <v>2.76393202250021E-010</v>
+        <v>16.3071989327512</v>
       </c>
       <c r="C27" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A27/d)*d*s/(d*PI())+s*$A27/d+s0</f>
-        <v>0.000380546138291253</v>
+        <v>5.71305553979598</v>
       </c>
       <c r="D27" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A27/d)*d^2*s/(d*PI()^2)+0.5*s*$A27^2/d+s0*$A27-0.25*d*s/PI()^2</f>
-        <v>120.998878399333</v>
+        <v>0.46618336409754</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A28)</f>
-        <v>850000</v>
+        <v>0.2125</v>
       </c>
       <c r="B28" s="6" t="n">
         <f aca="false">s/d*(1-COS($A28/d*2*PI()))</f>
-        <v>1.64885899083011E-010</v>
+        <v>9.72826804589762</v>
       </c>
       <c r="C28" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A28/d)*d*s/(d*PI())+s*$A28/d+s0</f>
-        <v>0.000391503621480048</v>
+        <v>5.87467841683071</v>
       </c>
       <c r="D28" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A28/d)*d^2*s/(d*PI()^2)+0.5*s*$A28^2/d+s0*$A28-0.25*d*s/PI()^2</f>
-        <v>140.323391384745</v>
+        <v>0.538692505731246</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A29)</f>
-        <v>900000</v>
+        <v>0.225</v>
       </c>
       <c r="B29" s="6" t="n">
         <f aca="false">s/d*(1-COS($A29/d*2*PI()))</f>
-        <v>7.63932022500211E-011</v>
+        <v>4.50719893275124</v>
       </c>
       <c r="C29" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A29/d)*d*s/(d*PI())+s*$A29/d+s0</f>
-        <v>0.000397419571351545</v>
+        <v>5.9619386774353</v>
       </c>
       <c r="D29" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A29/d)*d^2*s/(d*PI()^2)+0.5*s*$A29^2/d+s0*$A29-0.25*d*s/PI()^2</f>
-        <v>160.06493758145</v>
+        <v>0.612739457331596</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A30)</f>
-        <v>950000</v>
+        <v>0.2375</v>
       </c>
       <c r="B30" s="6" t="n">
         <f aca="false">s/d*(1-COS($A30/d*2*PI()))</f>
-        <v>1.95773934819386E-011</v>
+        <v>1.15506621543438</v>
       </c>
       <c r="C30" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A30/d)*d*s/(d*PI())+s*$A30/d+s0</f>
-        <v>0.000399672632861669</v>
+        <v>5.99517133470962</v>
       </c>
       <c r="D30" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A30/d)*d^2*s/(d*PI()^2)+0.5*s*$A30^2/d+s0*$A30-0.25*d*s/PI()^2</f>
-        <v>180.004098829945</v>
+        <v>0.687515114435421</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A31)</f>
-        <v>1000000</v>
+        <v>0.25</v>
       </c>
       <c r="B31" s="6" t="n">
         <f aca="false">s/d*(1-COS($A31/d*2*PI()))</f>
@@ -4076,11 +4099,11 @@
       </c>
       <c r="C31" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A31/d)*d*s/(d*PI())+s*$A31/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A31/d)*d^2*s/(d*PI()^2)+0.5*s*$A31^2/d+s0*$A31-0.25*d*s/PI()^2</f>
-        <v>200</v>
+        <v>0.7625</v>
       </c>
     </row>
   </sheetData>
@@ -4102,8 +4125,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4114,56 +4137,68 @@
       </c>
       <c r="B1" s="2" t="n">
         <f aca="false">accel!C31</f>
-        <v>0.0004</v>
+        <v>6</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <f aca="false">1-accel!B3</f>
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <f aca="false">5000000-accel!B3</f>
-        <v>4000000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">accel!D31</f>
-        <v>200</v>
+        <v>0.7625</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">d*(0.5*s+s0)+p0</f>
-        <v>1800</v>
+        <v>5.2625</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">B6-B4</f>
-        <v>1600</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>20</v>
@@ -4174,16 +4209,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -4205,11 +4240,11 @@
       </c>
       <c r="C11" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A11/d)*d*s/(d*PI())+s*$A11/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A11/d)*d^2*s/(d*PI()^2)+0.5*s*$A11^2/d+s0*$A11-0.25*d*s/PI()^2</f>
-        <v>200</v>
+        <v>0.7625</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -4223,7 +4258,7 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A12)</f>
-        <v>200000</v>
+        <v>0.0375</v>
       </c>
       <c r="B12" s="6" t="n">
         <f aca="false">s/d*(1-COS($A12/d*2*PI()))</f>
@@ -4231,11 +4266,11 @@
       </c>
       <c r="C12" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A12/d)*d*s/(d*PI())+s*$A12/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A12/d)*d^2*s/(d*PI()^2)+0.5*s*$A12^2/d+s0*$A12-0.25*d*s/PI()^2</f>
-        <v>280</v>
+        <v>0.9875</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4243,7 +4278,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A13)</f>
-        <v>400000</v>
+        <v>0.075</v>
       </c>
       <c r="B13" s="6" t="n">
         <f aca="false">s/d*(1-COS($A13/d*2*PI()))</f>
@@ -4251,11 +4286,11 @@
       </c>
       <c r="C13" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A13/d)*d*s/(d*PI())+s*$A13/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A13/d)*d^2*s/(d*PI()^2)+0.5*s*$A13^2/d+s0*$A13-0.25*d*s/PI()^2</f>
-        <v>360</v>
+        <v>1.2125</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -4263,7 +4298,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A14)</f>
-        <v>600000</v>
+        <v>0.1125</v>
       </c>
       <c r="B14" s="6" t="n">
         <f aca="false">s/d*(1-COS($A14/d*2*PI()))</f>
@@ -4271,17 +4306,17 @@
       </c>
       <c r="C14" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A14/d)*d*s/(d*PI())+s*$A14/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A14/d)*d^2*s/(d*PI()^2)+0.5*s*$A14^2/d+s0*$A14-0.25*d*s/PI()^2</f>
-        <v>440</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A15)</f>
-        <v>800000</v>
+        <v>0.15</v>
       </c>
       <c r="B15" s="6" t="n">
         <f aca="false">s/d*(1-COS($A15/d*2*PI()))</f>
@@ -4289,17 +4324,17 @@
       </c>
       <c r="C15" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A15/d)*d*s/(d*PI())+s*$A15/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A15/d)*d^2*s/(d*PI()^2)+0.5*s*$A15^2/d+s0*$A15-0.25*d*s/PI()^2</f>
-        <v>520</v>
+        <v>1.6625</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A16)</f>
-        <v>1000000</v>
+        <v>0.1875</v>
       </c>
       <c r="B16" s="6" t="n">
         <f aca="false">s/d*(1-COS($A16/d*2*PI()))</f>
@@ -4307,17 +4342,17 @@
       </c>
       <c r="C16" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A16/d)*d*s/(d*PI())+s*$A16/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A16/d)*d^2*s/(d*PI()^2)+0.5*s*$A16^2/d+s0*$A16-0.25*d*s/PI()^2</f>
-        <v>600</v>
+        <v>1.8875</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A17)</f>
-        <v>1200000</v>
+        <v>0.225</v>
       </c>
       <c r="B17" s="6" t="n">
         <f aca="false">s/d*(1-COS($A17/d*2*PI()))</f>
@@ -4325,17 +4360,17 @@
       </c>
       <c r="C17" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A17/d)*d*s/(d*PI())+s*$A17/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A17/d)*d^2*s/(d*PI()^2)+0.5*s*$A17^2/d+s0*$A17-0.25*d*s/PI()^2</f>
-        <v>680</v>
+        <v>2.1125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A18)</f>
-        <v>1400000</v>
+        <v>0.2625</v>
       </c>
       <c r="B18" s="6" t="n">
         <f aca="false">s/d*(1-COS($A18/d*2*PI()))</f>
@@ -4343,17 +4378,17 @@
       </c>
       <c r="C18" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A18/d)*d*s/(d*PI())+s*$A18/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A18/d)*d^2*s/(d*PI()^2)+0.5*s*$A18^2/d+s0*$A18-0.25*d*s/PI()^2</f>
-        <v>760</v>
+        <v>2.3375</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A19)</f>
-        <v>1600000</v>
+        <v>0.3</v>
       </c>
       <c r="B19" s="6" t="n">
         <f aca="false">s/d*(1-COS($A19/d*2*PI()))</f>
@@ -4361,17 +4396,17 @@
       </c>
       <c r="C19" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A19/d)*d*s/(d*PI())+s*$A19/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A19/d)*d^2*s/(d*PI()^2)+0.5*s*$A19^2/d+s0*$A19-0.25*d*s/PI()^2</f>
-        <v>840</v>
+        <v>2.5625</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A20)</f>
-        <v>1800000</v>
+        <v>0.3375</v>
       </c>
       <c r="B20" s="6" t="n">
         <f aca="false">s/d*(1-COS($A20/d*2*PI()))</f>
@@ -4379,17 +4414,17 @@
       </c>
       <c r="C20" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A20/d)*d*s/(d*PI())+s*$A20/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A20/d)*d^2*s/(d*PI()^2)+0.5*s*$A20^2/d+s0*$A20-0.25*d*s/PI()^2</f>
-        <v>920</v>
+        <v>2.7875</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A21)</f>
-        <v>2000000</v>
+        <v>0.375</v>
       </c>
       <c r="B21" s="6" t="n">
         <f aca="false">s/d*(1-COS($A21/d*2*PI()))</f>
@@ -4397,17 +4432,17 @@
       </c>
       <c r="C21" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A21/d)*d*s/(d*PI())+s*$A21/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A21/d)*d^2*s/(d*PI()^2)+0.5*s*$A21^2/d+s0*$A21-0.25*d*s/PI()^2</f>
-        <v>1000</v>
+        <v>3.0125</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A22)</f>
-        <v>2200000</v>
+        <v>0.4125</v>
       </c>
       <c r="B22" s="6" t="n">
         <f aca="false">s/d*(1-COS($A22/d*2*PI()))</f>
@@ -4415,17 +4450,17 @@
       </c>
       <c r="C22" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A22/d)*d*s/(d*PI())+s*$A22/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A22/d)*d^2*s/(d*PI()^2)+0.5*s*$A22^2/d+s0*$A22-0.25*d*s/PI()^2</f>
-        <v>1080</v>
+        <v>3.2375</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A23)</f>
-        <v>2400000</v>
+        <v>0.45</v>
       </c>
       <c r="B23" s="6" t="n">
         <f aca="false">s/d*(1-COS($A23/d*2*PI()))</f>
@@ -4433,17 +4468,17 @@
       </c>
       <c r="C23" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A23/d)*d*s/(d*PI())+s*$A23/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A23/d)*d^2*s/(d*PI()^2)+0.5*s*$A23^2/d+s0*$A23-0.25*d*s/PI()^2</f>
-        <v>1160</v>
+        <v>3.4625</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A24)</f>
-        <v>2600000</v>
+        <v>0.4875</v>
       </c>
       <c r="B24" s="6" t="n">
         <f aca="false">s/d*(1-COS($A24/d*2*PI()))</f>
@@ -4451,17 +4486,17 @@
       </c>
       <c r="C24" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A24/d)*d*s/(d*PI())+s*$A24/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A24/d)*d^2*s/(d*PI()^2)+0.5*s*$A24^2/d+s0*$A24-0.25*d*s/PI()^2</f>
-        <v>1240</v>
+        <v>3.6875</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A25)</f>
-        <v>2800000</v>
+        <v>0.525</v>
       </c>
       <c r="B25" s="6" t="n">
         <f aca="false">s/d*(1-COS($A25/d*2*PI()))</f>
@@ -4469,17 +4504,17 @@
       </c>
       <c r="C25" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A25/d)*d*s/(d*PI())+s*$A25/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A25/d)*d^2*s/(d*PI()^2)+0.5*s*$A25^2/d+s0*$A25-0.25*d*s/PI()^2</f>
-        <v>1320</v>
+        <v>3.9125</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A26)</f>
-        <v>3000000</v>
+        <v>0.5625</v>
       </c>
       <c r="B26" s="6" t="n">
         <f aca="false">s/d*(1-COS($A26/d*2*PI()))</f>
@@ -4487,17 +4522,17 @@
       </c>
       <c r="C26" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A26/d)*d*s/(d*PI())+s*$A26/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A26/d)*d^2*s/(d*PI()^2)+0.5*s*$A26^2/d+s0*$A26-0.25*d*s/PI()^2</f>
-        <v>1400</v>
+        <v>4.1375</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A27)</f>
-        <v>3200000</v>
+        <v>0.6</v>
       </c>
       <c r="B27" s="6" t="n">
         <f aca="false">s/d*(1-COS($A27/d*2*PI()))</f>
@@ -4505,17 +4540,17 @@
       </c>
       <c r="C27" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A27/d)*d*s/(d*PI())+s*$A27/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D27" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A27/d)*d^2*s/(d*PI()^2)+0.5*s*$A27^2/d+s0*$A27-0.25*d*s/PI()^2</f>
-        <v>1480</v>
+        <v>4.3625</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A28)</f>
-        <v>3400000</v>
+        <v>0.6375</v>
       </c>
       <c r="B28" s="6" t="n">
         <f aca="false">s/d*(1-COS($A28/d*2*PI()))</f>
@@ -4523,17 +4558,17 @@
       </c>
       <c r="C28" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A28/d)*d*s/(d*PI())+s*$A28/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A28/d)*d^2*s/(d*PI()^2)+0.5*s*$A28^2/d+s0*$A28-0.25*d*s/PI()^2</f>
-        <v>1560</v>
+        <v>4.5875</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A29)</f>
-        <v>3600000</v>
+        <v>0.675</v>
       </c>
       <c r="B29" s="6" t="n">
         <f aca="false">s/d*(1-COS($A29/d*2*PI()))</f>
@@ -4541,17 +4576,17 @@
       </c>
       <c r="C29" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A29/d)*d*s/(d*PI())+s*$A29/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A29/d)*d^2*s/(d*PI()^2)+0.5*s*$A29^2/d+s0*$A29-0.25*d*s/PI()^2</f>
-        <v>1640</v>
+        <v>4.8125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A30)</f>
-        <v>3800000</v>
+        <v>0.7125</v>
       </c>
       <c r="B30" s="6" t="n">
         <f aca="false">s/d*(1-COS($A30/d*2*PI()))</f>
@@ -4559,17 +4594,17 @@
       </c>
       <c r="C30" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A30/d)*d*s/(d*PI())+s*$A30/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A30/d)*d^2*s/(d*PI()^2)+0.5*s*$A30^2/d+s0*$A30-0.25*d*s/PI()^2</f>
-        <v>1720</v>
+        <v>5.0375</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A31)</f>
-        <v>4000000</v>
+        <v>0.75</v>
       </c>
       <c r="B31" s="6" t="n">
         <f aca="false">s/d*(1-COS($A31/d*2*PI()))</f>
@@ -4577,11 +4612,11 @@
       </c>
       <c r="C31" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A31/d)*d*s/(d*PI())+s*$A31/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A31/d)*d^2*s/(d*PI()^2)+0.5*s*$A31^2/d+s0*$A31-0.25*d*s/PI()^2</f>
-        <v>1800</v>
+        <v>5.2625</v>
       </c>
     </row>
   </sheetData>
@@ -4603,8 +4638,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4613,56 +4648,58 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
-        <v>0.0004</v>
+      <c r="B1" s="8" t="n">
+        <f aca="false">cruise!C31</f>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.0004</v>
+        <f aca="false">accel!B1-cruise!C31</f>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2150000</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">cruise!D31</f>
-        <v>1800</v>
+        <v>5.2625</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">d*(0.5*s+s0)+p0</f>
-        <v>2230</v>
+        <v>6.7875</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">B6-B4</f>
-        <v>430</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>20</v>
@@ -4673,16 +4710,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -4704,13 +4741,16 @@
       </c>
       <c r="C11" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A11/d)*d*s/(d*PI())+s*$A11/d+s0</f>
-        <v>0.0004</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A11/d)*d^2*s/(d*PI()^2)+0.5*s*$A11^2/d+s0*$A11-0.25*d*s/PI()^2</f>
-        <v>1800</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>5.2625</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <f aca="false">D11-$B$4</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -4722,353 +4762,427 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A12)</f>
-        <v>107500</v>
+        <v>0.025</v>
       </c>
       <c r="B12" s="6" t="n">
         <f aca="false">s/d*(1-COS($A12/d*2*PI()))</f>
-        <v>-9.10576441020399E-012</v>
+        <v>-0.577533107717188</v>
       </c>
       <c r="C12" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A12/d)*d*s/(d*PI())+s*$A12/d+s0</f>
-        <v>0.000399672632861669</v>
+        <v>5.99517133470962</v>
       </c>
       <c r="D12" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A12/d)*d^2*s/(d*PI()^2)+0.5*s*$A12^2/d+s0*$A12-0.25*d*s/PI()^2</f>
-        <v>1842.99118751562</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>5.41246977112916</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <f aca="false">D12-$B$4</f>
+        <v>0.149969771129159</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A13)</f>
-        <v>215000</v>
+        <v>0.05</v>
       </c>
       <c r="B13" s="6" t="n">
         <f aca="false">s/d*(1-COS($A13/d*2*PI()))</f>
-        <v>-3.55317219767539E-011</v>
+        <v>-2.25359946637562</v>
       </c>
       <c r="C13" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A13/d)*d*s/(d*PI())+s*$A13/d+s0</f>
-        <v>0.000397419571351545</v>
+        <v>5.9619386774353</v>
       </c>
       <c r="D13" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A13/d)*d^2*s/(d*PI()^2)+0.5*s*$A13^2/d+s0*$A13-0.25*d*s/PI()^2</f>
-        <v>1885.86038419988</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>5.56202108533681</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <f aca="false">D13-$B$4</f>
+        <v>0.299521085336806</v>
+      </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A14)</f>
-        <v>322500</v>
+        <v>0.075</v>
       </c>
       <c r="B14" s="6" t="n">
         <f aca="false">s/d*(1-COS($A14/d*2*PI()))</f>
-        <v>-7.66911158525631E-011</v>
+        <v>-4.86413402294882</v>
       </c>
       <c r="C14" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A14/d)*d*s/(d*PI())+s*$A14/d+s0</f>
-        <v>0.000391503621480048</v>
+        <v>5.87467841683071</v>
       </c>
       <c r="D14" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A14/d)*d^2*s/(d*PI()^2)+0.5*s*$A14^2/d+s0*$A14-0.25*d*s/PI()^2</f>
-        <v>1928.3047085228</v>
+        <v>5.71011498853751</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <f aca="false">D14-$B$4</f>
+        <v>0.447614988537509</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A15)</f>
-        <v>430000</v>
+        <v>0.1</v>
       </c>
       <c r="B15" s="6" t="n">
         <f aca="false">s/d*(1-COS($A15/d*2*PI()))</f>
-        <v>-1.28554977790707E-010</v>
+        <v>-8.15359946637562</v>
       </c>
       <c r="C15" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A15/d)*d*s/(d*PI())+s*$A15/d+s0</f>
-        <v>0.000380546138291252</v>
+        <v>5.71305553979598</v>
       </c>
       <c r="D15" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A15/d)*d^2*s/(d*PI()^2)+0.5*s*$A15^2/d+s0*$A15-0.25*d*s/PI()^2</f>
-        <v>1969.85241144143</v>
+        <v>5.85513327180492</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <f aca="false">D15-$B$4</f>
+        <v>0.592633271804918</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A16)</f>
-        <v>537500</v>
+        <v>0.125</v>
       </c>
       <c r="B16" s="6" t="n">
         <f aca="false">s/d*(1-COS($A16/d*2*PI()))</f>
-        <v>-1.86046511627907E-010</v>
+        <v>-11.8</v>
       </c>
       <c r="C16" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A16/d)*d*s/(d*PI())+s*$A16/d+s0</f>
-        <v>0.000363661977236758</v>
+        <v>5.46401416424218</v>
       </c>
       <c r="D16" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A16/d)*d^2*s/(d*PI()^2)+0.5*s*$A16^2/d+s0*$A16-0.25*d*s/PI()^2</f>
-        <v>2009.9090544831</v>
+        <v>5.99503687293622</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <f aca="false">D16-$B$4</f>
+        <v>0.732536872936224</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A17)</f>
-        <v>645000</v>
+        <v>0.15</v>
       </c>
       <c r="B17" s="6" t="n">
         <f aca="false">s/d*(1-COS($A17/d*2*PI()))</f>
-        <v>-2.43538045465106E-010</v>
+        <v>-15.4464005336244</v>
       </c>
       <c r="C17" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A17/d)*d*s/(d*PI())+s*$A17/d+s0</f>
-        <v>0.000340546138291252</v>
+        <v>5.12305553979598</v>
       </c>
       <c r="D17" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A17/d)*d^2*s/(d*PI()^2)+0.5*s*$A17^2/d+s0*$A17-0.25*d*s/PI()^2</f>
-        <v>2047.81569752477</v>
+        <v>6.12756547406753</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <f aca="false">D17-$B$4</f>
+        <v>0.86506547406753</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A18)</f>
-        <v>752500</v>
+        <v>0.175</v>
       </c>
       <c r="B18" s="6" t="n">
         <f aca="false">s/d*(1-COS($A18/d*2*PI()))</f>
-        <v>-2.95401907403251E-010</v>
+        <v>-18.7358659770512</v>
       </c>
       <c r="C18" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A18/d)*d*s/(d*PI())+s*$A18/d+s0</f>
-        <v>0.000311503621480048</v>
+        <v>4.69467841683071</v>
       </c>
       <c r="D18" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A18/d)*d^2*s/(d*PI()^2)+0.5*s*$A18^2/d+s0*$A18-0.25*d*s/PI()^2</f>
-        <v>2082.91340044341</v>
+        <v>6.25045875733494</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <f aca="false">D18-$B$4</f>
+        <v>0.987958757334939</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A19)</f>
-        <v>860000</v>
+        <v>0.2</v>
       </c>
       <c r="B19" s="6" t="n">
         <f aca="false">s/d*(1-COS($A19/d*2*PI()))</f>
-        <v>-3.3656130127906E-010</v>
+        <v>-21.3464005336244</v>
       </c>
       <c r="C19" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A19/d)*d*s/(d*PI())+s*$A19/d+s0</f>
-        <v>0.000277419571351545</v>
+        <v>4.1919386774353</v>
       </c>
       <c r="D19" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A19/d)*d^2*s/(d*PI()^2)+0.5*s*$A19^2/d+s0*$A19-0.25*d*s/PI()^2</f>
-        <v>2114.60772476632</v>
+        <v>6.36167766053564</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <f aca="false">D19-$B$4</f>
+        <v>1.09917766053564</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A20)</f>
-        <v>967500</v>
+        <v>0.225</v>
       </c>
       <c r="B20" s="6" t="n">
         <f aca="false">s/d*(1-COS($A20/d*2*PI()))</f>
-        <v>-3.6298725884561E-010</v>
+        <v>-23.0224668922828</v>
       </c>
       <c r="C20" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A20/d)*d*s/(d*PI())+s*$A20/d+s0</f>
-        <v>0.000239672632861669</v>
+        <v>3.63517133470962</v>
       </c>
       <c r="D20" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A20/d)*d^2*s/(d*PI()^2)+0.5*s*$A20^2/d+s0*$A20-0.25*d*s/PI()^2</f>
-        <v>2142.42692145058</v>
+        <v>6.45960397474329</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <f aca="false">D20-$B$4</f>
+        <v>1.19710397474329</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A21)</f>
-        <v>1075000</v>
+        <v>0.25</v>
       </c>
       <c r="B21" s="6" t="n">
         <f aca="false">s/d*(1-COS($A21/d*2*PI()))</f>
-        <v>-3.72093023255814E-010</v>
+        <v>-23.6</v>
       </c>
       <c r="C21" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A21/d)*d*s/(d*PI())+s*$A21/d+s0</f>
-        <v>0.0002</v>
+        <v>3.05</v>
       </c>
       <c r="D21" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A21/d)*d^2*s/(d*PI()^2)+0.5*s*$A21^2/d+s0*$A21-0.25*d*s/PI()^2</f>
-        <v>2166.0681089662</v>
+        <v>6.54319874587245</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <f aca="false">D21-$B$4</f>
+        <v>1.28069874587245</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A22)</f>
-        <v>1182500</v>
+        <v>0.275</v>
       </c>
       <c r="B22" s="6" t="n">
         <f aca="false">s/d*(1-COS($A22/d*2*PI()))</f>
-        <v>-3.6298725884561E-010</v>
+        <v>-23.0224668922828</v>
       </c>
       <c r="C22" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A22/d)*d*s/(d*PI())+s*$A22/d+s0</f>
-        <v>0.000160327367138331</v>
+        <v>2.46482866529038</v>
       </c>
       <c r="D22" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A22/d)*d^2*s/(d*PI()^2)+0.5*s*$A22^2/d+s0*$A22-0.25*d*s/PI()^2</f>
-        <v>2185.42692145059</v>
+        <v>6.61210397474329</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <f aca="false">D22-$B$4</f>
+        <v>1.34960397474329</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A23)</f>
-        <v>1290000</v>
+        <v>0.3</v>
       </c>
       <c r="B23" s="6" t="n">
         <f aca="false">s/d*(1-COS($A23/d*2*PI()))</f>
-        <v>-3.3656130127906E-010</v>
+        <v>-21.3464005336244</v>
       </c>
       <c r="C23" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A23/d)*d*s/(d*PI())+s*$A23/d+s0</f>
-        <v>0.000122580428648454</v>
+        <v>1.9080613225647</v>
       </c>
       <c r="D23" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A23/d)*d^2*s/(d*PI()^2)+0.5*s*$A23^2/d+s0*$A23-0.25*d*s/PI()^2</f>
-        <v>2200.60772476632</v>
+        <v>6.66667766053564</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <f aca="false">D23-$B$4</f>
+        <v>1.40417766053564</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A24)</f>
-        <v>1397500</v>
+        <v>0.325</v>
       </c>
       <c r="B24" s="6" t="n">
         <f aca="false">s/d*(1-COS($A24/d*2*PI()))</f>
-        <v>-2.95401907403251E-010</v>
+        <v>-18.7358659770512</v>
       </c>
       <c r="C24" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A24/d)*d*s/(d*PI())+s*$A24/d+s0</f>
-        <v>8.84963785199515E-005</v>
+        <v>1.40532158316929</v>
       </c>
       <c r="D24" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A24/d)*d^2*s/(d*PI()^2)+0.5*s*$A24^2/d+s0*$A24-0.25*d*s/PI()^2</f>
-        <v>2211.91340044341</v>
+        <v>6.70795875733494</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <f aca="false">D24-$B$4</f>
+        <v>1.44545875733494</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A25)</f>
-        <v>1505000</v>
+        <v>0.35</v>
       </c>
       <c r="B25" s="6" t="n">
         <f aca="false">s/d*(1-COS($A25/d*2*PI()))</f>
-        <v>-2.43538045465106E-010</v>
+        <v>-15.4464005336244</v>
       </c>
       <c r="C25" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A25/d)*d*s/(d*PI())+s*$A25/d+s0</f>
-        <v>5.94538617087474E-005</v>
+        <v>0.976944460204024</v>
       </c>
       <c r="D25" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A25/d)*d^2*s/(d*PI()^2)+0.5*s*$A25^2/d+s0*$A25-0.25*d*s/PI()^2</f>
-        <v>2219.81569752477</v>
+        <v>6.73756547406753</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <f aca="false">D25-$B$4</f>
+        <v>1.47506547406753</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A26)</f>
-        <v>1612500</v>
+        <v>0.375</v>
       </c>
       <c r="B26" s="6" t="n">
         <f aca="false">s/d*(1-COS($A26/d*2*PI()))</f>
-        <v>-1.86046511627907E-010</v>
+        <v>-11.8</v>
       </c>
       <c r="C26" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A26/d)*d*s/(d*PI())+s*$A26/d+s0</f>
-        <v>3.63380227632418E-005</v>
+        <v>0.635985835757817</v>
       </c>
       <c r="D26" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A26/d)*d^2*s/(d*PI()^2)+0.5*s*$A26^2/d+s0*$A26-0.25*d*s/PI()^2</f>
-        <v>2224.9090544831</v>
+        <v>6.75753687293622</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <f aca="false">D26-$B$4</f>
+        <v>1.49503687293622</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A27)</f>
-        <v>1720000</v>
+        <v>0.4</v>
       </c>
       <c r="B27" s="6" t="n">
         <f aca="false">s/d*(1-COS($A27/d*2*PI()))</f>
-        <v>-1.28554977790707E-010</v>
+        <v>-8.15359946637562</v>
       </c>
       <c r="C27" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A27/d)*d*s/(d*PI())+s*$A27/d+s0</f>
-        <v>1.94538617087474E-005</v>
+        <v>0.386944460204024</v>
       </c>
       <c r="D27" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A27/d)*d^2*s/(d*PI()^2)+0.5*s*$A27^2/d+s0*$A27-0.25*d*s/PI()^2</f>
-        <v>2227.85241144143</v>
+        <v>6.77013327180492</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <f aca="false">D27-$B$4</f>
+        <v>1.50763327180492</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A28)</f>
-        <v>1827500</v>
+        <v>0.425</v>
       </c>
       <c r="B28" s="6" t="n">
         <f aca="false">s/d*(1-COS($A28/d*2*PI()))</f>
-        <v>-7.66911158525631E-011</v>
+        <v>-4.86413402294881</v>
       </c>
       <c r="C28" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A28/d)*d*s/(d*PI())+s*$A28/d+s0</f>
-        <v>8.49637851995158E-006</v>
+        <v>0.225321583169286</v>
       </c>
       <c r="D28" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A28/d)*d^2*s/(d*PI()^2)+0.5*s*$A28^2/d+s0*$A28-0.25*d*s/PI()^2</f>
-        <v>2229.3047085228</v>
+        <v>6.77761498853751</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <f aca="false">D28-$B$4</f>
+        <v>1.51511498853751</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A29)</f>
-        <v>1935000</v>
+        <v>0.45</v>
       </c>
       <c r="B29" s="6" t="n">
         <f aca="false">s/d*(1-COS($A29/d*2*PI()))</f>
-        <v>-3.5531721976754E-011</v>
+        <v>-2.25359946637562</v>
       </c>
       <c r="C29" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A29/d)*d*s/(d*PI())+s*$A29/d+s0</f>
-        <v>2.58042864845437E-006</v>
+        <v>0.138061322564703</v>
       </c>
       <c r="D29" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A29/d)*d^2*s/(d*PI()^2)+0.5*s*$A29^2/d+s0*$A29-0.25*d*s/PI()^2</f>
-        <v>2229.86038419988</v>
+        <v>6.78202108533681</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <f aca="false">D29-$B$4</f>
+        <v>1.51952108533681</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A30)</f>
-        <v>2042500</v>
+        <v>0.475</v>
       </c>
       <c r="B30" s="6" t="n">
         <f aca="false">s/d*(1-COS($A30/d*2*PI()))</f>
-        <v>-9.10576441020399E-012</v>
+        <v>-0.577533107717188</v>
       </c>
       <c r="C30" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A30/d)*d*s/(d*PI())+s*$A30/d+s0</f>
-        <v>3.27367138330641E-007</v>
+        <v>0.104828665290377</v>
       </c>
       <c r="D30" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A30/d)*d^2*s/(d*PI()^2)+0.5*s*$A30^2/d+s0*$A30-0.25*d*s/PI()^2</f>
-        <v>2229.99118751562</v>
+        <v>6.78496977112916</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <f aca="false">D30-$B$4</f>
+        <v>1.52246977112916</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <f aca="false">d/$B$8*COUNT(A$11:$A31)</f>
-        <v>2150000</v>
+        <v>0.5</v>
       </c>
       <c r="B31" s="6" t="n">
         <f aca="false">s/d*(1-COS($A31/d*2*PI()))</f>
@@ -5076,11 +5190,15 @@
       </c>
       <c r="C31" s="6" t="n">
         <f aca="false">-0.5*SIN(2*PI()*$A31/d)*d*s/(d*PI())+s*$A31/d+s0</f>
-        <v>0</v>
+        <v>0.0999999999999996</v>
       </c>
       <c r="D31" s="7" t="n">
         <f aca="false">p0+0.25*COS(2*PI()*$A31/d)*d^2*s/(d*PI()^2)+0.5*s*$A31^2/d+s0*$A31-0.25*d*s/PI()^2</f>
-        <v>2230</v>
+        <v>6.7875</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <f aca="false">D31-$B$4</f>
+        <v>1.525</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/calc.xlsx
+++ b/analysis/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="accel" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,21 +13,19 @@
     <sheet name="decel" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="a" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="d" vbProcedure="false">accel!$B$3</definedName>
-    <definedName function="false" hidden="false" name="p0" vbProcedure="false">accel!$B$4</definedName>
-    <definedName function="false" hidden="false" name="s" vbProcedure="false">accel!$B$2</definedName>
-    <definedName function="false" hidden="false" name="s0" vbProcedure="false">accel!$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="a" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="d" vbProcedure="false">accel!$B$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="s0" vbProcedure="false">accel!$B$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="sd" vbProcedure="false">accel!$B$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="x0" vbProcedure="false">accel!$B$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="xd" vbProcedure="false">accel!$B$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="d" vbProcedure="false">cruise!$B$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="p0" vbProcedure="false">cruise!$B$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="s" vbProcedure="false">cruise!$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="s0" vbProcedure="false">cruise!$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="a" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="sd" vbProcedure="false">cruise!$B$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="x0" vbProcedure="false">cruise!$B$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="d" vbProcedure="false">decel!$B$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="p0" vbProcedure="false">decel!$B$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="s" vbProcedure="false">decel!$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="s0" vbProcedure="false">decel!$B$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="sd" vbProcedure="false">decel!$B$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="x0" vbProcedure="false">decel!$B$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -39,30 +37,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
-    <t xml:space="preserve">s0</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">s</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">rev/s</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">s</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">d</t>
   </si>
   <si>
-    <t xml:space="preserve">p0</t>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">x</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">steps</t>
   </si>
   <si>
-    <t xml:space="preserve">pos(d)</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">x</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">deltapos</t>
+    <t xml:space="preserve">∆x</t>
   </si>
   <si>
     <t xml:space="preserve">tdivs</t>
@@ -71,30 +152,32 @@
     <t xml:space="preserve">t</t>
   </si>
   <si>
-    <t xml:space="preserve">accel(t)</t>
+    <t xml:space="preserve">a(t)</t>
   </si>
   <si>
-    <t xml:space="preserve">speed(t)</t>
+    <t xml:space="preserve">s(t)</t>
   </si>
   <si>
-    <t xml:space="preserve">pos(t)</t>
+    <t xml:space="preserve">x(t)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -116,9 +199,23 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -171,7 +268,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,7 +281,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,7 +289,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,11 +297,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,11 +322,26 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -258,7 +378,7 @@
       <rgbColor rgb="FFAADCF7"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -280,7 +400,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -323,11 +443,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>accel!$B$10:$B$10</c:f>
+              <c:f>accel!$B$11:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>accel(t)</c:v>
+                  <c:v>a(t)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -358,6 +478,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -373,7 +494,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>accel!$A$11:$A$31</c:f>
+              <c:f>accel!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -445,7 +566,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>accel!$B$11:$B$31</c:f>
+              <c:f>accel!$B$12:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -517,17 +638,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70826526"/>
-        <c:axId val="25080746"/>
+        <c:axId val="11441992"/>
+        <c:axId val="51683086"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70826526"/>
+        <c:axId val="11441992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -549,12 +670,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25080746"/>
+        <c:crossAx val="51683086"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25080746"/>
+        <c:axId val="51683086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +690,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -591,9 +712,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70826526"/>
+        <c:crossAx val="11441992"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -618,7 +739,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -661,11 +782,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>accel!$C$10:$C$10</c:f>
+              <c:f>accel!$C$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed(t)</c:v>
+                  <c:v>s(t)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -696,6 +817,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -711,7 +833,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>accel!$A$11:$A$31</c:f>
+              <c:f>accel!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -783,7 +905,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>accel!$C$11:$C$31</c:f>
+              <c:f>accel!$C$12:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -855,17 +977,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54513573"/>
-        <c:axId val="95723841"/>
+        <c:axId val="41977884"/>
+        <c:axId val="6425498"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54513573"/>
+        <c:axId val="41977884"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -887,12 +1009,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95723841"/>
+        <c:crossAx val="6425498"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95723841"/>
+        <c:axId val="6425498"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +1029,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -929,9 +1051,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54513573"/>
+        <c:crossAx val="41977884"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -956,7 +1078,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -999,11 +1121,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>accel!$D$10:$D$10</c:f>
+              <c:f>accel!$D$11:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pos(t)</c:v>
+                  <c:v>x(t)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1034,6 +1156,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1049,7 +1172,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>accel!$A$11:$A$31</c:f>
+              <c:f>accel!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1121,7 +1244,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>accel!$D$11:$D$31</c:f>
+              <c:f>accel!$D$12:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1193,17 +1316,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11614556"/>
-        <c:axId val="91390704"/>
+        <c:axId val="90593166"/>
+        <c:axId val="4969369"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11614556"/>
+        <c:axId val="90593166"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1225,12 +1348,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91390704"/>
+        <c:crossAx val="4969369"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91390704"/>
+        <c:axId val="4969369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1368,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1267,9 +1390,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11614556"/>
+        <c:crossAx val="90593166"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1294,7 +1417,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1337,11 +1460,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cruise!$B$10:$B$10</c:f>
+              <c:f>cruise!$B$11:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>accel(t)</c:v>
+                  <c:v>a(t)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1372,6 +1495,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1387,7 +1511,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>cruise!$A$11:$A$31</c:f>
+              <c:f>cruise!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1459,7 +1583,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>cruise!$B$11:$B$31</c:f>
+              <c:f>cruise!$B$12:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1531,17 +1655,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67329083"/>
-        <c:axId val="36090365"/>
+        <c:axId val="99116028"/>
+        <c:axId val="82686563"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67329083"/>
+        <c:axId val="99116028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1563,12 +1687,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36090365"/>
+        <c:crossAx val="82686563"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36090365"/>
+        <c:axId val="82686563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1707,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1605,9 +1729,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67329083"/>
+        <c:crossAx val="99116028"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1632,7 +1756,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1675,11 +1799,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cruise!$C$10:$C$10</c:f>
+              <c:f>cruise!$C$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed(t)</c:v>
+                  <c:v>s(t)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1710,6 +1834,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1725,7 +1850,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>cruise!$A$11:$A$31</c:f>
+              <c:f>cruise!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1797,7 +1922,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>cruise!$C$11:$C$31</c:f>
+              <c:f>cruise!$C$12:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1869,17 +1994,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19946584"/>
-        <c:axId val="53703441"/>
+        <c:axId val="33732087"/>
+        <c:axId val="31297891"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19946584"/>
+        <c:axId val="33732087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1901,12 +2026,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53703441"/>
+        <c:crossAx val="31297891"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53703441"/>
+        <c:axId val="31297891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +2046,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1943,9 +2068,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19946584"/>
+        <c:crossAx val="33732087"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1970,7 +2095,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2013,11 +2138,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cruise!$D$10:$D$10</c:f>
+              <c:f>cruise!$D$11:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pos(t)</c:v>
+                  <c:v>x(t)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2048,6 +2173,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2063,7 +2189,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>cruise!$A$11:$A$31</c:f>
+              <c:f>cruise!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2135,7 +2261,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>cruise!$D$11:$D$31</c:f>
+              <c:f>cruise!$D$12:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2207,17 +2333,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="28863073"/>
-        <c:axId val="79577361"/>
+        <c:axId val="26043685"/>
+        <c:axId val="57364259"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28863073"/>
+        <c:axId val="26043685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2239,12 +2365,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79577361"/>
+        <c:crossAx val="57364259"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79577361"/>
+        <c:axId val="57364259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2385,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2281,9 +2407,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28863073"/>
+        <c:crossAx val="26043685"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2308,7 +2434,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2351,11 +2477,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>decel!$B$10:$B$10</c:f>
+              <c:f>decel!$B$11:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>accel(t)</c:v>
+                  <c:v>a(t)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2386,6 +2512,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2401,7 +2528,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>decel!$A$11:$A$31</c:f>
+              <c:f>decel!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2409,71 +2536,71 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0125</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.025</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.0375</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.075</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.0875</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>0.1125</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>0.1375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>0.1625</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.175</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>0.2125</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.225</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>0.2375</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.275</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.325</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.425</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>decel!$B$11:$B$31</c:f>
+              <c:f>decel!$B$12:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2481,61 +2608,61 @@
                   <c:v>-0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.577533107717188</c:v>
+                  <c:v>-1.15506621543438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.25359946637562</c:v>
+                  <c:v>-4.50719893275124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.86413402294882</c:v>
+                  <c:v>-9.72826804589764</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.15359946637562</c:v>
+                  <c:v>-16.3071989327512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.8</c:v>
+                  <c:v>-23.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-15.4464005336244</c:v>
+                  <c:v>-30.8928010672488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-18.7358659770512</c:v>
+                  <c:v>-37.4717319541024</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-21.3464005336244</c:v>
+                  <c:v>-42.6928010672488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-23.0224668922828</c:v>
+                  <c:v>-46.0449337845656</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>-47.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-46.0449337845656</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-42.6928010672488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37.4717319541024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-30.8928010672488</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-23.6</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>-23.0224668922828</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-21.3464005336244</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-18.7358659770512</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-15.4464005336244</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-11.8</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.15359946637562</c:v>
+                  <c:v>-16.3071989327512</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.86413402294881</c:v>
+                  <c:v>-9.72826804589762</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.25359946637562</c:v>
+                  <c:v>-4.50719893275124</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.577533107717188</c:v>
+                  <c:v>-1.15506621543438</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-0</c:v>
@@ -2545,17 +2672,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37746313"/>
-        <c:axId val="42561198"/>
+        <c:axId val="42951161"/>
+        <c:axId val="24392676"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37746313"/>
+        <c:axId val="42951161"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2577,12 +2704,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42561198"/>
+        <c:crossAx val="24392676"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42561198"/>
+        <c:axId val="24392676"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,7 +2724,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2619,9 +2746,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37746313"/>
+        <c:crossAx val="42951161"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2646,7 +2773,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2689,11 +2816,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>decel!$C$10:$C$10</c:f>
+              <c:f>decel!$C$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed(t)</c:v>
+                  <c:v>s(t)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2724,6 +2851,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2739,7 +2867,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>decel!$A$11:$A$31</c:f>
+              <c:f>decel!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2747,71 +2875,71 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0125</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.025</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.0375</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.075</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.0875</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>0.1125</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>0.1375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>0.1625</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.175</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>0.2125</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.225</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>0.2375</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.275</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.325</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.425</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>decel!$C$11:$C$31</c:f>
+              <c:f>decel!$C$12:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2883,17 +3011,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="77418889"/>
-        <c:axId val="34658569"/>
+        <c:axId val="53788994"/>
+        <c:axId val="51495779"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77418889"/>
+        <c:axId val="53788994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2915,12 +3043,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34658569"/>
+        <c:crossAx val="51495779"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34658569"/>
+        <c:axId val="51495779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2935,7 +3063,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2957,9 +3085,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77418889"/>
+        <c:crossAx val="53788994"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2984,7 +3112,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3027,11 +3155,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>decel!$D$10:$D$10</c:f>
+              <c:f>decel!$D$11:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pos(t)</c:v>
+                  <c:v>x(t)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3062,6 +3190,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3077,7 +3206,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>decel!$A$11:$A$31</c:f>
+              <c:f>decel!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3085,71 +3214,71 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0125</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.025</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.0375</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.075</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.0875</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>0.1125</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>0.1375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>0.1625</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.175</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>0.2125</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.225</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>0.2375</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.275</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.325</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.425</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>decel!$D$11:$D$31</c:f>
+              <c:f>decel!$D$12:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3157,81 +3286,81 @@
                   <c:v>5.2625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.41246977112916</c:v>
+                  <c:v>5.33748488556458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.56202108533681</c:v>
+                  <c:v>5.4122605426684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.71011498853751</c:v>
+                  <c:v>5.48630749426875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.85513327180492</c:v>
+                  <c:v>5.55881663590246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.99503687293622</c:v>
+                  <c:v>5.62876843646811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.12756547406753</c:v>
+                  <c:v>5.69503273703377</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.25045875733494</c:v>
+                  <c:v>5.75647937866747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.36167766053564</c:v>
+                  <c:v>5.81208883026782</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.45960397474329</c:v>
+                  <c:v>5.86105198737165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.54319874587245</c:v>
+                  <c:v>5.90284937293622</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.61210397474329</c:v>
+                  <c:v>5.93730198737164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.66667766053564</c:v>
+                  <c:v>5.96458883026782</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.70795875733494</c:v>
+                  <c:v>5.98522937866747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.73756547406753</c:v>
+                  <c:v>6.00003273703377</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.75753687293622</c:v>
+                  <c:v>6.01001843646811</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.77013327180492</c:v>
+                  <c:v>6.01631663590246</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.77761498853751</c:v>
+                  <c:v>6.02005749426875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.78202108533681</c:v>
+                  <c:v>6.0222605426684</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.78496977112916</c:v>
+                  <c:v>6.02373488556458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.7875</c:v>
+                  <c:v>6.025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82771870"/>
-        <c:axId val="75102727"/>
+        <c:axId val="76619797"/>
+        <c:axId val="41246773"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82771870"/>
+        <c:axId val="76619797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3253,12 +3382,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75102727"/>
+        <c:crossAx val="41246773"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75102727"/>
+        <c:axId val="41246773"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3273,7 +3402,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3295,9 +3424,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82771870"/>
+        <c:crossAx val="76619797"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3326,16 +3455,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>630720</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256320</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3343,8 +3472,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3881880" y="162360"/>
-        <a:ext cx="3125160" cy="2093040"/>
+        <a:off x="4332960" y="0"/>
+        <a:ext cx="3249000" cy="2159280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3356,16 +3485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>701640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>575640</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3373,8 +3502,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7203960" y="284760"/>
-        <a:ext cx="3125160" cy="2093040"/>
+        <a:off x="7942680" y="0"/>
+        <a:ext cx="3249360" cy="2159280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3386,16 +3515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>757080</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>631080</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3403,8 +3532,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4008240" y="2533320"/>
-        <a:ext cx="3125160" cy="2093040"/>
+        <a:off x="4332960" y="2520000"/>
+        <a:ext cx="3134160" cy="2092320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3421,16 +3550,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>630720</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256320</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3438,8 +3567,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3881880" y="162360"/>
-        <a:ext cx="3125160" cy="2093040"/>
+        <a:off x="4332960" y="0"/>
+        <a:ext cx="3249000" cy="2159280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3451,16 +3580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>701640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>575640</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3468,8 +3597,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7203960" y="284760"/>
-        <a:ext cx="3125160" cy="2093040"/>
+        <a:off x="7942680" y="0"/>
+        <a:ext cx="3249360" cy="2159280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3481,16 +3610,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>757080</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>631080</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3498,8 +3627,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4008240" y="2533320"/>
-        <a:ext cx="3125160" cy="2093040"/>
+        <a:off x="4332960" y="2520000"/>
+        <a:ext cx="3249000" cy="2159280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3516,16 +3645,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>630720</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256320</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504720</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3533,8 +3662,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3881880" y="162360"/>
-        <a:ext cx="3125160" cy="2093040"/>
+        <a:off x="4332960" y="0"/>
+        <a:ext cx="3249000" cy="2159280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3546,16 +3675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>701640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>575640</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3563,8 +3692,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7203960" y="284760"/>
-        <a:ext cx="3125160" cy="2093040"/>
+        <a:off x="7942680" y="0"/>
+        <a:ext cx="3249360" cy="2159280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3576,16 +3705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>755640</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>629640</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3593,8 +3722,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4006800" y="2534400"/>
-        <a:ext cx="3125160" cy="2093040"/>
+        <a:off x="4332960" y="2520000"/>
+        <a:ext cx="3249000" cy="2159280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3612,13 +3741,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3627,7 +3756,7 @@
       <c r="B1" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3639,7 +3768,7 @@
         <f aca="false">6-B1</f>
         <v>5.9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3650,463 +3779,495 @@
       <c r="B3" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>2</v>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">d*(0.5*s+s0)+p0</f>
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <f aca="false">d*(0.5*sd+s0)+x0</f>
         <v>0.7625</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <f aca="false">B6-B4</f>
         <v>0.7625</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <f aca="false">2*(-d*s0-x0+B6)/d</f>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A11:$A$11)</f>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A12:$A$12)</f>
         <v>0</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A11/d*2*PI()))</f>
+      <c r="B12" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A12/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A11/d)*d*s/(d*PI())+s*$A11/d+s0</f>
+      <c r="C12" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A12/d)*d*sd/(d*PI())+sd*$A12/d+s0</f>
         <v>0.1</v>
       </c>
-      <c r="D11" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A11/d)*d^2*s/(d*PI()^2)+0.5*s*$A11^2/d+s0*$A11-0.25*d*s/PI()^2</f>
+      <c r="D12" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A12/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A12^2/d+s0*$A12-0.25*d*sd/PI()^2</f>
         <v>0</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A12)</f>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A13)</f>
         <v>0.0125</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A12/d*2*PI()))</f>
+      <c r="B13" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A13/d*2*PI()))</f>
         <v>1.15506621543438</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A12/d)*d*s/(d*PI())+s*$A12/d+s0</f>
+      <c r="C13" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A13/d)*d*sd/(d*PI())+sd*$A13/d+s0</f>
         <v>0.104828665290378</v>
       </c>
-      <c r="D12" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A12/d)*d^2*s/(d*PI()^2)+0.5*s*$A12^2/d+s0*$A12-0.25*d*s/PI()^2</f>
+      <c r="D13" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A13/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A13^2/d+s0*$A13-0.25*d*sd/PI()^2</f>
         <v>0.00126511443542052</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A13)</f>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A14)</f>
         <v>0.025</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A13/d*2*PI()))</f>
+      <c r="B14" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A14/d*2*PI()))</f>
         <v>4.50719893275124</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A13/d)*d*s/(d*PI())+s*$A13/d+s0</f>
+      <c r="C14" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A14/d)*d*sd/(d*PI())+sd*$A14/d+s0</f>
         <v>0.138061322564703</v>
       </c>
-      <c r="D13" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A13/d)*d^2*s/(d*PI()^2)+0.5*s*$A13^2/d+s0*$A13-0.25*d*s/PI()^2</f>
+      <c r="D14" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A14/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A14^2/d+s0*$A14-0.25*d*sd/PI()^2</f>
         <v>0.0027394573315963</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A14)</f>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A15)</f>
         <v>0.0375</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A14/d*2*PI()))</f>
+      <c r="B15" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A15/d*2*PI()))</f>
         <v>9.72826804589764</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A14/d)*d*s/(d*PI())+s*$A14/d+s0</f>
+      <c r="C15" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A15/d)*d*sd/(d*PI())+sd*$A15/d+s0</f>
         <v>0.225321583169286</v>
       </c>
-      <c r="D14" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A14/d)*d^2*s/(d*PI()^2)+0.5*s*$A14^2/d+s0*$A14-0.25*d*s/PI()^2</f>
+      <c r="D15" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A15/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A15^2/d+s0*$A15-0.25*d*sd/PI()^2</f>
         <v>0.00494250573124562</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A15)</f>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A16)</f>
         <v>0.05</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A15/d*2*PI()))</f>
+      <c r="B16" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A16/d*2*PI()))</f>
         <v>16.3071989327512</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A15/d)*d*s/(d*PI())+s*$A15/d+s0</f>
+      <c r="C16" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A16/d)*d*sd/(d*PI())+sd*$A16/d+s0</f>
         <v>0.386944460204025</v>
       </c>
-      <c r="D15" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A15/d)*d^2*s/(d*PI()^2)+0.5*s*$A15^2/d+s0*$A15-0.25*d*s/PI()^2</f>
+      <c r="D16" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A16/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A16^2/d+s0*$A16-0.25*d*sd/PI()^2</f>
         <v>0.00868336409754028</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A16)</f>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A17)</f>
         <v>0.0625</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A16/d*2*PI()))</f>
+      <c r="B17" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A17/d*2*PI()))</f>
         <v>23.6</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A16/d)*d*s/(d*PI())+s*$A16/d+s0</f>
+      <c r="C17" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A17/d)*d*sd/(d*PI())+sd*$A17/d+s0</f>
         <v>0.635985835757818</v>
       </c>
-      <c r="D16" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A16/d)*d^2*s/(d*PI()^2)+0.5*s*$A16^2/d+s0*$A16-0.25*d*s/PI()^2</f>
+      <c r="D17" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A17/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A17^2/d+s0*$A17-0.25*d*sd/PI()^2</f>
         <v>0.0149815635318879</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A17)</f>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A18)</f>
         <v>0.075</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A17/d*2*PI()))</f>
+      <c r="B18" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A18/d*2*PI()))</f>
         <v>30.8928010672488</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A17/d)*d*s/(d*PI())+s*$A17/d+s0</f>
+      <c r="C18" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A18/d)*d*sd/(d*PI())+sd*$A18/d+s0</f>
         <v>0.976944460204025</v>
       </c>
-      <c r="D17" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A17/d)*d^2*s/(d*PI()^2)+0.5*s*$A17^2/d+s0*$A17-0.25*d*s/PI()^2</f>
+      <c r="D18" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A18/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A18^2/d+s0*$A18-0.25*d*sd/PI()^2</f>
         <v>0.0249672629662356</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A18)</f>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A19)</f>
         <v>0.0875</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A18/d*2*PI()))</f>
+      <c r="B19" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A19/d*2*PI()))</f>
         <v>37.4717319541024</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A18/d)*d*s/(d*PI())+s*$A18/d+s0</f>
+      <c r="C19" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A19/d)*d*sd/(d*PI())+sd*$A19/d+s0</f>
         <v>1.40532158316929</v>
       </c>
-      <c r="D18" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A18/d)*d^2*s/(d*PI()^2)+0.5*s*$A18^2/d+s0*$A18-0.25*d*s/PI()^2</f>
+      <c r="D19" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A19/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A19^2/d+s0*$A19-0.25*d*sd/PI()^2</f>
         <v>0.0397706213325303</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A19)</f>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A20)</f>
         <v>0.1</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A19/d*2*PI()))</f>
+      <c r="B20" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A20/d*2*PI()))</f>
         <v>42.6928010672488</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A19/d)*d*s/(d*PI())+s*$A19/d+s0</f>
+      <c r="C20" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A20/d)*d*sd/(d*PI())+sd*$A20/d+s0</f>
         <v>1.9080613225647</v>
       </c>
-      <c r="D19" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A19/d)*d^2*s/(d*PI()^2)+0.5*s*$A19^2/d+s0*$A19-0.25*d*s/PI()^2</f>
+      <c r="D20" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A20/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A20^2/d+s0*$A20-0.25*d*sd/PI()^2</f>
         <v>0.0604111697321796</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A20)</f>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A21)</f>
         <v>0.1125</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A20/d*2*PI()))</f>
+      <c r="B21" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A21/d*2*PI()))</f>
         <v>46.0449337845656</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A20/d)*d*s/(d*PI())+s*$A20/d+s0</f>
+      <c r="C21" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A21/d)*d*sd/(d*PI())+sd*$A21/d+s0</f>
         <v>2.46482866529038</v>
       </c>
-      <c r="D20" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A20/d)*d^2*s/(d*PI()^2)+0.5*s*$A20^2/d+s0*$A20-0.25*d*s/PI()^2</f>
+      <c r="D21" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A21/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A21^2/d+s0*$A21-0.25*d*sd/PI()^2</f>
         <v>0.0876980126283554</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A21)</f>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A22)</f>
         <v>0.125</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A21/d*2*PI()))</f>
+      <c r="B22" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A22/d*2*PI()))</f>
         <v>47.2</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A21/d)*d*s/(d*PI())+s*$A21/d+s0</f>
+      <c r="C22" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A22/d)*d*sd/(d*PI())+sd*$A22/d+s0</f>
         <v>3.05</v>
       </c>
-      <c r="D21" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A21/d)*d^2*s/(d*PI()^2)+0.5*s*$A21^2/d+s0*$A21-0.25*d*s/PI()^2</f>
+      <c r="D22" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A22/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A22^2/d+s0*$A22-0.25*d*sd/PI()^2</f>
         <v>0.122150627063776</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A22)</f>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A23)</f>
         <v>0.1375</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A22/d*2*PI()))</f>
+      <c r="B23" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A23/d*2*PI()))</f>
         <v>46.0449337845656</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A22/d)*d*s/(d*PI())+s*$A22/d+s0</f>
+      <c r="C23" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A23/d)*d*sd/(d*PI())+sd*$A23/d+s0</f>
         <v>3.63517133470962</v>
       </c>
-      <c r="D22" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A22/d)*d^2*s/(d*PI()^2)+0.5*s*$A22^2/d+s0*$A22-0.25*d*s/PI()^2</f>
+      <c r="D23" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A23/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A23^2/d+s0*$A23-0.25*d*sd/PI()^2</f>
         <v>0.163948012628355</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A23)</f>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A24)</f>
         <v>0.15</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A23/d*2*PI()))</f>
+      <c r="B24" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A24/d*2*PI()))</f>
         <v>42.6928010672488</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A23/d)*d*s/(d*PI())+s*$A23/d+s0</f>
+      <c r="C24" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A24/d)*d*sd/(d*PI())+sd*$A24/d+s0</f>
         <v>4.1919386774353</v>
       </c>
-      <c r="D23" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A23/d)*d^2*s/(d*PI()^2)+0.5*s*$A23^2/d+s0*$A23-0.25*d*s/PI()^2</f>
+      <c r="D24" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A24/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A24^2/d+s0*$A24-0.25*d*sd/PI()^2</f>
         <v>0.21291116973218</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A24)</f>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A25)</f>
         <v>0.1625</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A24/d*2*PI()))</f>
+      <c r="B25" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A25/d*2*PI()))</f>
         <v>37.4717319541024</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A24/d)*d*s/(d*PI())+s*$A24/d+s0</f>
+      <c r="C25" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A25/d)*d*sd/(d*PI())+sd*$A25/d+s0</f>
         <v>4.69467841683071</v>
       </c>
-      <c r="D24" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A24/d)*d^2*s/(d*PI()^2)+0.5*s*$A24^2/d+s0*$A24-0.25*d*s/PI()^2</f>
+      <c r="D25" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A25/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A25^2/d+s0*$A25-0.25*d*sd/PI()^2</f>
         <v>0.26852062133253</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A25)</f>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A26)</f>
         <v>0.175</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A25/d*2*PI()))</f>
+      <c r="B26" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A26/d*2*PI()))</f>
         <v>30.8928010672488</v>
       </c>
-      <c r="C25" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A25/d)*d*s/(d*PI())+s*$A25/d+s0</f>
+      <c r="C26" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A26/d)*d*sd/(d*PI())+sd*$A26/d+s0</f>
         <v>5.12305553979598</v>
       </c>
-      <c r="D25" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A25/d)*d^2*s/(d*PI()^2)+0.5*s*$A25^2/d+s0*$A25-0.25*d*s/PI()^2</f>
+      <c r="D26" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A26/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A26^2/d+s0*$A26-0.25*d*sd/PI()^2</f>
         <v>0.329967262966236</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A26)</f>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A27)</f>
         <v>0.1875</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A26/d*2*PI()))</f>
+      <c r="B27" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A27/d*2*PI()))</f>
         <v>23.6</v>
       </c>
-      <c r="C26" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A26/d)*d*s/(d*PI())+s*$A26/d+s0</f>
+      <c r="C27" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A27/d)*d*sd/(d*PI())+sd*$A27/d+s0</f>
         <v>5.46401416424218</v>
       </c>
-      <c r="D26" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A26/d)*d^2*s/(d*PI()^2)+0.5*s*$A26^2/d+s0*$A26-0.25*d*s/PI()^2</f>
+      <c r="D27" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A27/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A27^2/d+s0*$A27-0.25*d*sd/PI()^2</f>
         <v>0.396231563531888</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A27)</f>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A28)</f>
         <v>0.2</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A27/d*2*PI()))</f>
+      <c r="B28" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A28/d*2*PI()))</f>
         <v>16.3071989327512</v>
       </c>
-      <c r="C27" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A27/d)*d*s/(d*PI())+s*$A27/d+s0</f>
+      <c r="C28" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A28/d)*d*sd/(d*PI())+sd*$A28/d+s0</f>
         <v>5.71305553979598</v>
       </c>
-      <c r="D27" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A27/d)*d^2*s/(d*PI()^2)+0.5*s*$A27^2/d+s0*$A27-0.25*d*s/PI()^2</f>
+      <c r="D28" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A28/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A28^2/d+s0*$A28-0.25*d*sd/PI()^2</f>
         <v>0.46618336409754</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A28)</f>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A29)</f>
         <v>0.2125</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A28/d*2*PI()))</f>
+      <c r="B29" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A29/d*2*PI()))</f>
         <v>9.72826804589762</v>
       </c>
-      <c r="C28" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A28/d)*d*s/(d*PI())+s*$A28/d+s0</f>
+      <c r="C29" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A29/d)*d*sd/(d*PI())+sd*$A29/d+s0</f>
         <v>5.87467841683071</v>
       </c>
-      <c r="D28" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A28/d)*d^2*s/(d*PI()^2)+0.5*s*$A28^2/d+s0*$A28-0.25*d*s/PI()^2</f>
+      <c r="D29" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A29/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A29^2/d+s0*$A29-0.25*d*sd/PI()^2</f>
         <v>0.538692505731246</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A29)</f>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A30)</f>
         <v>0.225</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A29/d*2*PI()))</f>
+      <c r="B30" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A30/d*2*PI()))</f>
         <v>4.50719893275124</v>
       </c>
-      <c r="C29" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A29/d)*d*s/(d*PI())+s*$A29/d+s0</f>
+      <c r="C30" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A30/d)*d*sd/(d*PI())+sd*$A30/d+s0</f>
         <v>5.9619386774353</v>
       </c>
-      <c r="D29" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A29/d)*d^2*s/(d*PI()^2)+0.5*s*$A29^2/d+s0*$A29-0.25*d*s/PI()^2</f>
+      <c r="D30" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A30/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A30^2/d+s0*$A30-0.25*d*sd/PI()^2</f>
         <v>0.612739457331596</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A30)</f>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A31)</f>
         <v>0.2375</v>
       </c>
-      <c r="B30" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A30/d*2*PI()))</f>
+      <c r="B31" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A31/d*2*PI()))</f>
         <v>1.15506621543438</v>
       </c>
-      <c r="C30" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A30/d)*d*s/(d*PI())+s*$A30/d+s0</f>
+      <c r="C31" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A31/d)*d*sd/(d*PI())+sd*$A31/d+s0</f>
         <v>5.99517133470962</v>
       </c>
-      <c r="D30" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A30/d)*d^2*s/(d*PI()^2)+0.5*s*$A30^2/d+s0*$A30-0.25*d*s/PI()^2</f>
+      <c r="D31" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A31/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A31^2/d+s0*$A31-0.25*d*sd/PI()^2</f>
         <v>0.687515114435421</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A31)</f>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A32)</f>
         <v>0.25</v>
       </c>
-      <c r="B31" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A31/d*2*PI()))</f>
+      <c r="B32" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A32/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C31" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A31/d)*d*s/(d*PI())+s*$A31/d+s0</f>
+      <c r="C32" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A32/d)*d*sd/(d*PI())+sd*$A32/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D31" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A31/d)*d^2*s/(d*PI()^2)+0.5*s*$A31^2/d+s0*$A31-0.25*d*s/PI()^2</f>
+      <c r="D32" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A32/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A32^2/d+s0*$A32-0.25*d*sd/PI()^2</f>
         <v>0.7625</v>
       </c>
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>accel!$B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4123,23 +4284,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P39" activeCellId="0" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <f aca="false">accel!C31</f>
+        <f aca="false">accel!C32</f>
         <v>6</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4150,7 +4311,7 @@
       <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4162,467 +4323,499 @@
         <f aca="false">1-accel!B3</f>
         <v>0.75</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>2</v>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="n">
-        <f aca="false">accel!D31</f>
+        <f aca="false">accel!D32</f>
         <v>0.7625</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">d*(0.5*s+s0)+p0</f>
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <f aca="false">d*(0.5*sd+s0)+x0</f>
         <v>5.2625</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <f aca="false">B6-B4</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <f aca="false">2*(-d*s0-x0+B6)/d</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A11:$A$11)</f>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A12)</f>
         <v>0</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A11/d*2*PI()))</f>
+      <c r="B12" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A12/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A11/d)*d*s/(d*PI())+s*$A11/d+s0</f>
+      <c r="C12" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A12/d)*d*sd/(d*PI())+sd*$A12/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A11/d)*d^2*s/(d*PI()^2)+0.5*s*$A11^2/d+s0*$A11-0.25*d*s/PI()^2</f>
+      <c r="D12" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A12/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A12^2/d+s0*$A12-0.25*d*sd/PI()^2</f>
         <v>0.7625</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A12)</f>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A13)</f>
         <v>0.0375</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A12/d*2*PI()))</f>
+      <c r="B13" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A13/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A12/d)*d*s/(d*PI())+s*$A12/d+s0</f>
+      <c r="C13" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A13/d)*d*sd/(d*PI())+sd*$A13/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A12/d)*d^2*s/(d*PI()^2)+0.5*s*$A12^2/d+s0*$A12-0.25*d*s/PI()^2</f>
+      <c r="D13" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A13/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A13^2/d+s0*$A13-0.25*d*sd/PI()^2</f>
         <v>0.9875</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A13)</f>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A14)</f>
         <v>0.075</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A13/d*2*PI()))</f>
+      <c r="B14" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A14/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A13/d)*d*s/(d*PI())+s*$A13/d+s0</f>
+      <c r="C14" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A14/d)*d*sd/(d*PI())+sd*$A14/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A13/d)*d^2*s/(d*PI()^2)+0.5*s*$A13^2/d+s0*$A13-0.25*d*s/PI()^2</f>
+      <c r="D14" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A14/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A14^2/d+s0*$A14-0.25*d*sd/PI()^2</f>
         <v>1.2125</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A14)</f>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A15)</f>
         <v>0.1125</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A14/d*2*PI()))</f>
+      <c r="B15" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A15/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A14/d)*d*s/(d*PI())+s*$A14/d+s0</f>
+      <c r="C15" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A15/d)*d*sd/(d*PI())+sd*$A15/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D14" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A14/d)*d^2*s/(d*PI()^2)+0.5*s*$A14^2/d+s0*$A14-0.25*d*s/PI()^2</f>
+      <c r="D15" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A15/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A15^2/d+s0*$A15-0.25*d*sd/PI()^2</f>
         <v>1.4375</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A15)</f>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A16)</f>
         <v>0.15</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A15/d*2*PI()))</f>
+      <c r="B16" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A16/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A15/d)*d*s/(d*PI())+s*$A15/d+s0</f>
+      <c r="C16" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A16/d)*d*sd/(d*PI())+sd*$A16/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D15" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A15/d)*d^2*s/(d*PI()^2)+0.5*s*$A15^2/d+s0*$A15-0.25*d*s/PI()^2</f>
+      <c r="D16" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A16/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A16^2/d+s0*$A16-0.25*d*sd/PI()^2</f>
         <v>1.6625</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A16)</f>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A17)</f>
         <v>0.1875</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A16/d*2*PI()))</f>
+      <c r="B17" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A17/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A16/d)*d*s/(d*PI())+s*$A16/d+s0</f>
+      <c r="C17" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A17/d)*d*sd/(d*PI())+sd*$A17/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D16" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A16/d)*d^2*s/(d*PI()^2)+0.5*s*$A16^2/d+s0*$A16-0.25*d*s/PI()^2</f>
+      <c r="D17" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A17/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A17^2/d+s0*$A17-0.25*d*sd/PI()^2</f>
         <v>1.8875</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A17)</f>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A18)</f>
         <v>0.225</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A17/d*2*PI()))</f>
+      <c r="B18" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A18/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A17/d)*d*s/(d*PI())+s*$A17/d+s0</f>
+      <c r="C18" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A18/d)*d*sd/(d*PI())+sd*$A18/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D17" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A17/d)*d^2*s/(d*PI()^2)+0.5*s*$A17^2/d+s0*$A17-0.25*d*s/PI()^2</f>
+      <c r="D18" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A18/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A18^2/d+s0*$A18-0.25*d*sd/PI()^2</f>
         <v>2.1125</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A18)</f>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A19)</f>
         <v>0.2625</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A18/d*2*PI()))</f>
+      <c r="B19" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A19/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A18/d)*d*s/(d*PI())+s*$A18/d+s0</f>
+      <c r="C19" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A19/d)*d*sd/(d*PI())+sd*$A19/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A18/d)*d^2*s/(d*PI()^2)+0.5*s*$A18^2/d+s0*$A18-0.25*d*s/PI()^2</f>
+      <c r="D19" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A19/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A19^2/d+s0*$A19-0.25*d*sd/PI()^2</f>
         <v>2.3375</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A19)</f>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A20)</f>
         <v>0.3</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A19/d*2*PI()))</f>
+      <c r="B20" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A20/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A19/d)*d*s/(d*PI())+s*$A19/d+s0</f>
+      <c r="C20" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A20/d)*d*sd/(d*PI())+sd*$A20/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D19" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A19/d)*d^2*s/(d*PI()^2)+0.5*s*$A19^2/d+s0*$A19-0.25*d*s/PI()^2</f>
+      <c r="D20" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A20/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A20^2/d+s0*$A20-0.25*d*sd/PI()^2</f>
         <v>2.5625</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A20)</f>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A21)</f>
         <v>0.3375</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A20/d*2*PI()))</f>
+      <c r="B21" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A21/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A20/d)*d*s/(d*PI())+s*$A20/d+s0</f>
+      <c r="C21" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A21/d)*d*sd/(d*PI())+sd*$A21/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D20" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A20/d)*d^2*s/(d*PI()^2)+0.5*s*$A20^2/d+s0*$A20-0.25*d*s/PI()^2</f>
+      <c r="D21" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A21/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A21^2/d+s0*$A21-0.25*d*sd/PI()^2</f>
         <v>2.7875</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A21)</f>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A22)</f>
         <v>0.375</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A21/d*2*PI()))</f>
+      <c r="B22" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A22/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A21/d)*d*s/(d*PI())+s*$A21/d+s0</f>
+      <c r="C22" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A22/d)*d*sd/(d*PI())+sd*$A22/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D21" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A21/d)*d^2*s/(d*PI()^2)+0.5*s*$A21^2/d+s0*$A21-0.25*d*s/PI()^2</f>
+      <c r="D22" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A22/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A22^2/d+s0*$A22-0.25*d*sd/PI()^2</f>
         <v>3.0125</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A22)</f>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A23)</f>
         <v>0.4125</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A22/d*2*PI()))</f>
+      <c r="B23" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A23/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A22/d)*d*s/(d*PI())+s*$A22/d+s0</f>
+      <c r="C23" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A23/d)*d*sd/(d*PI())+sd*$A23/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D22" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A22/d)*d^2*s/(d*PI()^2)+0.5*s*$A22^2/d+s0*$A22-0.25*d*s/PI()^2</f>
+      <c r="D23" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A23/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A23^2/d+s0*$A23-0.25*d*sd/PI()^2</f>
         <v>3.2375</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A23)</f>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A24)</f>
         <v>0.45</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A23/d*2*PI()))</f>
+      <c r="B24" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A24/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A23/d)*d*s/(d*PI())+s*$A23/d+s0</f>
+      <c r="C24" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A24/d)*d*sd/(d*PI())+sd*$A24/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D23" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A23/d)*d^2*s/(d*PI()^2)+0.5*s*$A23^2/d+s0*$A23-0.25*d*s/PI()^2</f>
+      <c r="D24" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A24/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A24^2/d+s0*$A24-0.25*d*sd/PI()^2</f>
         <v>3.4625</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A24)</f>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A25)</f>
         <v>0.4875</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A24/d*2*PI()))</f>
+      <c r="B25" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A25/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A24/d)*d*s/(d*PI())+s*$A24/d+s0</f>
+      <c r="C25" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A25/d)*d*sd/(d*PI())+sd*$A25/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D24" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A24/d)*d^2*s/(d*PI()^2)+0.5*s*$A24^2/d+s0*$A24-0.25*d*s/PI()^2</f>
+      <c r="D25" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A25/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A25^2/d+s0*$A25-0.25*d*sd/PI()^2</f>
         <v>3.6875</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A25)</f>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A26)</f>
         <v>0.525</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A25/d*2*PI()))</f>
+      <c r="B26" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A26/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A25/d)*d*s/(d*PI())+s*$A25/d+s0</f>
+      <c r="C26" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A26/d)*d*sd/(d*PI())+sd*$A26/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D25" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A25/d)*d^2*s/(d*PI()^2)+0.5*s*$A25^2/d+s0*$A25-0.25*d*s/PI()^2</f>
+      <c r="D26" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A26/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A26^2/d+s0*$A26-0.25*d*sd/PI()^2</f>
         <v>3.9125</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A26)</f>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A27)</f>
         <v>0.5625</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A26/d*2*PI()))</f>
+      <c r="B27" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A27/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A26/d)*d*s/(d*PI())+s*$A26/d+s0</f>
+      <c r="C27" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A27/d)*d*sd/(d*PI())+sd*$A27/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D26" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A26/d)*d^2*s/(d*PI()^2)+0.5*s*$A26^2/d+s0*$A26-0.25*d*s/PI()^2</f>
+      <c r="D27" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A27/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A27^2/d+s0*$A27-0.25*d*sd/PI()^2</f>
         <v>4.1375</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A27)</f>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A28)</f>
         <v>0.6</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A27/d*2*PI()))</f>
+      <c r="B28" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A28/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C27" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A27/d)*d*s/(d*PI())+s*$A27/d+s0</f>
+      <c r="C28" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A28/d)*d*sd/(d*PI())+sd*$A28/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D27" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A27/d)*d^2*s/(d*PI()^2)+0.5*s*$A27^2/d+s0*$A27-0.25*d*s/PI()^2</f>
+      <c r="D28" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A28/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A28^2/d+s0*$A28-0.25*d*sd/PI()^2</f>
         <v>4.3625</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A28)</f>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A29)</f>
         <v>0.6375</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A28/d*2*PI()))</f>
+      <c r="B29" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A29/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C28" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A28/d)*d*s/(d*PI())+s*$A28/d+s0</f>
+      <c r="C29" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A29/d)*d*sd/(d*PI())+sd*$A29/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A28/d)*d^2*s/(d*PI()^2)+0.5*s*$A28^2/d+s0*$A28-0.25*d*s/PI()^2</f>
+      <c r="D29" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A29/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A29^2/d+s0*$A29-0.25*d*sd/PI()^2</f>
         <v>4.5875</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A29)</f>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A30)</f>
         <v>0.675</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A29/d*2*PI()))</f>
+      <c r="B30" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A30/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C29" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A29/d)*d*s/(d*PI())+s*$A29/d+s0</f>
+      <c r="C30" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A30/d)*d*sd/(d*PI())+sd*$A30/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D29" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A29/d)*d^2*s/(d*PI()^2)+0.5*s*$A29^2/d+s0*$A29-0.25*d*s/PI()^2</f>
+      <c r="D30" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A30/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A30^2/d+s0*$A30-0.25*d*sd/PI()^2</f>
         <v>4.8125</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A30)</f>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A31)</f>
         <v>0.7125</v>
       </c>
-      <c r="B30" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A30/d*2*PI()))</f>
+      <c r="B31" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A31/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C30" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A30/d)*d*s/(d*PI())+s*$A30/d+s0</f>
+      <c r="C31" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A31/d)*d*sd/(d*PI())+sd*$A31/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D30" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A30/d)*d^2*s/(d*PI()^2)+0.5*s*$A30^2/d+s0*$A30-0.25*d*s/PI()^2</f>
+      <c r="D31" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A31/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A31^2/d+s0*$A31-0.25*d*sd/PI()^2</f>
         <v>5.0375</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A31)</f>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A32)</f>
         <v>0.75</v>
       </c>
-      <c r="B31" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A31/d*2*PI()))</f>
+      <c r="B32" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A32/d*2*PI()))</f>
         <v>0</v>
       </c>
-      <c r="C31" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A31/d)*d*s/(d*PI())+s*$A31/d+s0</f>
+      <c r="C32" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A32/d)*d*sd/(d*PI())+sd*$A32/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D31" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A31/d)*d^2*s/(d*PI()^2)+0.5*s*$A31^2/d+s0*$A31-0.25*d*s/PI()^2</f>
+      <c r="D32" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A32/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A32^2/d+s0*$A32-0.25*d*sd/PI()^2</f>
         <v>5.2625</v>
       </c>
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>cruise!$B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4636,21 +4829,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q38" activeCellId="0" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="n">
-        <f aca="false">cruise!C31</f>
+      <c r="B1" s="10" t="n">
+        <f aca="false">cruise!C32</f>
         <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,8 +4854,11 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
-        <f aca="false">accel!B1-cruise!C31</f>
+        <f aca="false">accel!B1-cruise!C32</f>
         <v>-5.9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4667,544 +4866,501 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="n">
-        <f aca="false">cruise!D31</f>
+        <f aca="false">cruise!D32</f>
         <v>5.2625</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">d*(0.5*s+s0)+p0</f>
-        <v>6.7875</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <f aca="false">d*(0.5*sd+s0)+x0</f>
+        <v>6.025</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <f aca="false">B6-B4</f>
-        <v>1.525</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <f aca="false">2*(-d*s0-x0+B6)/d</f>
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A11:$A$11)</f>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A12:$A$12)</f>
         <v>0</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A11/d*2*PI()))</f>
+      <c r="B12" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A12/d*2*PI()))</f>
         <v>-0</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A11/d)*d*s/(d*PI())+s*$A11/d+s0</f>
+      <c r="C12" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A12/d)*d*sd/(d*PI())+sd*$A12/d+s0</f>
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A11/d)*d^2*s/(d*PI()^2)+0.5*s*$A11^2/d+s0*$A11-0.25*d*s/PI()^2</f>
+      <c r="D12" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A12/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A12^2/d+s0*$A12-0.25*d*sd/PI()^2</f>
         <v>5.2625</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">D11-$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A12)</f>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A13)</f>
+        <v>0.0125</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A13/d*2*PI()))</f>
+        <v>-1.15506621543438</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A13/d)*d*sd/(d*PI())+sd*$A13/d+s0</f>
+        <v>5.99517133470962</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A13/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A13^2/d+s0*$A13-0.25*d*sd/PI()^2</f>
+        <v>5.33748488556458</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A14)</f>
         <v>0.025</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A12/d*2*PI()))</f>
-        <v>-0.577533107717188</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A12/d)*d*s/(d*PI())+s*$A12/d+s0</f>
-        <v>5.99517133470962</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A12/d)*d^2*s/(d*PI()^2)+0.5*s*$A12^2/d+s0*$A12-0.25*d*s/PI()^2</f>
-        <v>5.41246977112916</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <f aca="false">D12-$B$4</f>
-        <v>0.149969771129159</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A13)</f>
+      <c r="B14" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A14/d*2*PI()))</f>
+        <v>-4.50719893275124</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A14/d)*d*sd/(d*PI())+sd*$A14/d+s0</f>
+        <v>5.9619386774353</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A14/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A14^2/d+s0*$A14-0.25*d*sd/PI()^2</f>
+        <v>5.4122605426684</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A15)</f>
+        <v>0.0375</v>
+      </c>
+      <c r="B15" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A15/d*2*PI()))</f>
+        <v>-9.72826804589764</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A15/d)*d*sd/(d*PI())+sd*$A15/d+s0</f>
+        <v>5.87467841683071</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A15/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A15^2/d+s0*$A15-0.25*d*sd/PI()^2</f>
+        <v>5.48630749426875</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A16)</f>
         <v>0.05</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A13/d*2*PI()))</f>
-        <v>-2.25359946637562</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A13/d)*d*s/(d*PI())+s*$A13/d+s0</f>
-        <v>5.9619386774353</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A13/d)*d^2*s/(d*PI()^2)+0.5*s*$A13^2/d+s0*$A13-0.25*d*s/PI()^2</f>
-        <v>5.56202108533681</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <f aca="false">D13-$B$4</f>
-        <v>0.299521085336806</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A14)</f>
+      <c r="B16" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A16/d*2*PI()))</f>
+        <v>-16.3071989327512</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A16/d)*d*sd/(d*PI())+sd*$A16/d+s0</f>
+        <v>5.71305553979598</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A16/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A16^2/d+s0*$A16-0.25*d*sd/PI()^2</f>
+        <v>5.55881663590246</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A17)</f>
+        <v>0.0625</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A17/d*2*PI()))</f>
+        <v>-23.6</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A17/d)*d*sd/(d*PI())+sd*$A17/d+s0</f>
+        <v>5.46401416424218</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A17/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A17^2/d+s0*$A17-0.25*d*sd/PI()^2</f>
+        <v>5.62876843646811</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A18)</f>
         <v>0.075</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A14/d*2*PI()))</f>
-        <v>-4.86413402294882</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A14/d)*d*s/(d*PI())+s*$A14/d+s0</f>
-        <v>5.87467841683071</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A14/d)*d^2*s/(d*PI()^2)+0.5*s*$A14^2/d+s0*$A14-0.25*d*s/PI()^2</f>
-        <v>5.71011498853751</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <f aca="false">D14-$B$4</f>
-        <v>0.447614988537509</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A15)</f>
+      <c r="B18" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A18/d*2*PI()))</f>
+        <v>-30.8928010672488</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A18/d)*d*sd/(d*PI())+sd*$A18/d+s0</f>
+        <v>5.12305553979598</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A18/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A18^2/d+s0*$A18-0.25*d*sd/PI()^2</f>
+        <v>5.69503273703377</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A19)</f>
+        <v>0.0875</v>
+      </c>
+      <c r="B19" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A19/d*2*PI()))</f>
+        <v>-37.4717319541024</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A19/d)*d*sd/(d*PI())+sd*$A19/d+s0</f>
+        <v>4.69467841683071</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A19/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A19^2/d+s0*$A19-0.25*d*sd/PI()^2</f>
+        <v>5.75647937866747</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A20)</f>
         <v>0.1</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A15/d*2*PI()))</f>
-        <v>-8.15359946637562</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A15/d)*d*s/(d*PI())+s*$A15/d+s0</f>
-        <v>5.71305553979598</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A15/d)*d^2*s/(d*PI()^2)+0.5*s*$A15^2/d+s0*$A15-0.25*d*s/PI()^2</f>
-        <v>5.85513327180492</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <f aca="false">D15-$B$4</f>
-        <v>0.592633271804918</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A16)</f>
+      <c r="B20" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A20/d*2*PI()))</f>
+        <v>-42.6928010672488</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A20/d)*d*sd/(d*PI())+sd*$A20/d+s0</f>
+        <v>4.1919386774353</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A20/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A20^2/d+s0*$A20-0.25*d*sd/PI()^2</f>
+        <v>5.81208883026782</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A21)</f>
+        <v>0.1125</v>
+      </c>
+      <c r="B21" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A21/d*2*PI()))</f>
+        <v>-46.0449337845656</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A21/d)*d*sd/(d*PI())+sd*$A21/d+s0</f>
+        <v>3.63517133470962</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A21/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A21^2/d+s0*$A21-0.25*d*sd/PI()^2</f>
+        <v>5.86105198737165</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A22)</f>
         <v>0.125</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A16/d*2*PI()))</f>
-        <v>-11.8</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A16/d)*d*s/(d*PI())+s*$A16/d+s0</f>
-        <v>5.46401416424218</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A16/d)*d^2*s/(d*PI()^2)+0.5*s*$A16^2/d+s0*$A16-0.25*d*s/PI()^2</f>
-        <v>5.99503687293622</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <f aca="false">D16-$B$4</f>
-        <v>0.732536872936224</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A17)</f>
+      <c r="B22" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A22/d*2*PI()))</f>
+        <v>-47.2</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A22/d)*d*sd/(d*PI())+sd*$A22/d+s0</f>
+        <v>3.05</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A22/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A22^2/d+s0*$A22-0.25*d*sd/PI()^2</f>
+        <v>5.90284937293622</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A23)</f>
+        <v>0.1375</v>
+      </c>
+      <c r="B23" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A23/d*2*PI()))</f>
+        <v>-46.0449337845656</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A23/d)*d*sd/(d*PI())+sd*$A23/d+s0</f>
+        <v>2.46482866529038</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A23/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A23^2/d+s0*$A23-0.25*d*sd/PI()^2</f>
+        <v>5.93730198737164</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A24)</f>
         <v>0.15</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A17/d*2*PI()))</f>
-        <v>-15.4464005336244</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A17/d)*d*s/(d*PI())+s*$A17/d+s0</f>
-        <v>5.12305553979598</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A17/d)*d^2*s/(d*PI()^2)+0.5*s*$A17^2/d+s0*$A17-0.25*d*s/PI()^2</f>
-        <v>6.12756547406753</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <f aca="false">D17-$B$4</f>
-        <v>0.86506547406753</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A18)</f>
+      <c r="B24" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A24/d*2*PI()))</f>
+        <v>-42.6928010672488</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A24/d)*d*sd/(d*PI())+sd*$A24/d+s0</f>
+        <v>1.9080613225647</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A24/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A24^2/d+s0*$A24-0.25*d*sd/PI()^2</f>
+        <v>5.96458883026782</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A25)</f>
+        <v>0.1625</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A25/d*2*PI()))</f>
+        <v>-37.4717319541024</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A25/d)*d*sd/(d*PI())+sd*$A25/d+s0</f>
+        <v>1.40532158316929</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A25/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A25^2/d+s0*$A25-0.25*d*sd/PI()^2</f>
+        <v>5.98522937866747</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A26)</f>
         <v>0.175</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A18/d*2*PI()))</f>
-        <v>-18.7358659770512</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A18/d)*d*s/(d*PI())+s*$A18/d+s0</f>
-        <v>4.69467841683071</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A18/d)*d^2*s/(d*PI()^2)+0.5*s*$A18^2/d+s0*$A18-0.25*d*s/PI()^2</f>
-        <v>6.25045875733494</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <f aca="false">D18-$B$4</f>
-        <v>0.987958757334939</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A19)</f>
+      <c r="B26" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A26/d*2*PI()))</f>
+        <v>-30.8928010672488</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A26/d)*d*sd/(d*PI())+sd*$A26/d+s0</f>
+        <v>0.976944460204024</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A26/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A26^2/d+s0*$A26-0.25*d*sd/PI()^2</f>
+        <v>6.00003273703377</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A27)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="B27" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A27/d*2*PI()))</f>
+        <v>-23.6</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A27/d)*d*sd/(d*PI())+sd*$A27/d+s0</f>
+        <v>0.635985835757817</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A27/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A27^2/d+s0*$A27-0.25*d*sd/PI()^2</f>
+        <v>6.01001843646811</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A28)</f>
         <v>0.2</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A19/d*2*PI()))</f>
-        <v>-21.3464005336244</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A19/d)*d*s/(d*PI())+s*$A19/d+s0</f>
-        <v>4.1919386774353</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A19/d)*d^2*s/(d*PI()^2)+0.5*s*$A19^2/d+s0*$A19-0.25*d*s/PI()^2</f>
-        <v>6.36167766053564</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <f aca="false">D19-$B$4</f>
-        <v>1.09917766053564</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A20)</f>
+      <c r="B28" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A28/d*2*PI()))</f>
+        <v>-16.3071989327512</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A28/d)*d*sd/(d*PI())+sd*$A28/d+s0</f>
+        <v>0.386944460204024</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A28/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A28^2/d+s0*$A28-0.25*d*sd/PI()^2</f>
+        <v>6.01631663590246</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A29)</f>
+        <v>0.2125</v>
+      </c>
+      <c r="B29" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A29/d*2*PI()))</f>
+        <v>-9.72826804589762</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A29/d)*d*sd/(d*PI())+sd*$A29/d+s0</f>
+        <v>0.225321583169286</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A29/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A29^2/d+s0*$A29-0.25*d*sd/PI()^2</f>
+        <v>6.02005749426875</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A30)</f>
         <v>0.225</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A20/d*2*PI()))</f>
-        <v>-23.0224668922828</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A20/d)*d*s/(d*PI())+s*$A20/d+s0</f>
-        <v>3.63517133470962</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A20/d)*d^2*s/(d*PI()^2)+0.5*s*$A20^2/d+s0*$A20-0.25*d*s/PI()^2</f>
-        <v>6.45960397474329</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <f aca="false">D20-$B$4</f>
-        <v>1.19710397474329</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A21)</f>
+      <c r="B30" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A30/d*2*PI()))</f>
+        <v>-4.50719893275124</v>
+      </c>
+      <c r="C30" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A30/d)*d*sd/(d*PI())+sd*$A30/d+s0</f>
+        <v>0.138061322564703</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A30/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A30^2/d+s0*$A30-0.25*d*sd/PI()^2</f>
+        <v>6.0222605426684</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A31)</f>
+        <v>0.2375</v>
+      </c>
+      <c r="B31" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A31/d*2*PI()))</f>
+        <v>-1.15506621543438</v>
+      </c>
+      <c r="C31" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A31/d)*d*sd/(d*PI())+sd*$A31/d+s0</f>
+        <v>0.104828665290377</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A31/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A31^2/d+s0*$A31-0.25*d*sd/PI()^2</f>
+        <v>6.02373488556458</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
+        <f aca="false">d/$B$9*COUNT(A$12:$A32)</f>
         <v>0.25</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A21/d*2*PI()))</f>
-        <v>-23.6</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A21/d)*d*s/(d*PI())+s*$A21/d+s0</f>
-        <v>3.05</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A21/d)*d^2*s/(d*PI()^2)+0.5*s*$A21^2/d+s0*$A21-0.25*d*s/PI()^2</f>
-        <v>6.54319874587245</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <f aca="false">D21-$B$4</f>
-        <v>1.28069874587245</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A22)</f>
-        <v>0.275</v>
-      </c>
-      <c r="B22" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A22/d*2*PI()))</f>
-        <v>-23.0224668922828</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A22/d)*d*s/(d*PI())+s*$A22/d+s0</f>
-        <v>2.46482866529038</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A22/d)*d^2*s/(d*PI()^2)+0.5*s*$A22^2/d+s0*$A22-0.25*d*s/PI()^2</f>
-        <v>6.61210397474329</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <f aca="false">D22-$B$4</f>
-        <v>1.34960397474329</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A23)</f>
-        <v>0.3</v>
-      </c>
-      <c r="B23" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A23/d*2*PI()))</f>
-        <v>-21.3464005336244</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A23/d)*d*s/(d*PI())+s*$A23/d+s0</f>
-        <v>1.9080613225647</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A23/d)*d^2*s/(d*PI()^2)+0.5*s*$A23^2/d+s0*$A23-0.25*d*s/PI()^2</f>
-        <v>6.66667766053564</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <f aca="false">D23-$B$4</f>
-        <v>1.40417766053564</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A24)</f>
-        <v>0.325</v>
-      </c>
-      <c r="B24" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A24/d*2*PI()))</f>
-        <v>-18.7358659770512</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A24/d)*d*s/(d*PI())+s*$A24/d+s0</f>
-        <v>1.40532158316929</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A24/d)*d^2*s/(d*PI()^2)+0.5*s*$A24^2/d+s0*$A24-0.25*d*s/PI()^2</f>
-        <v>6.70795875733494</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <f aca="false">D24-$B$4</f>
-        <v>1.44545875733494</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A25)</f>
-        <v>0.35</v>
-      </c>
-      <c r="B25" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A25/d*2*PI()))</f>
-        <v>-15.4464005336244</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A25/d)*d*s/(d*PI())+s*$A25/d+s0</f>
-        <v>0.976944460204024</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A25/d)*d^2*s/(d*PI()^2)+0.5*s*$A25^2/d+s0*$A25-0.25*d*s/PI()^2</f>
-        <v>6.73756547406753</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <f aca="false">D25-$B$4</f>
-        <v>1.47506547406753</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A26)</f>
-        <v>0.375</v>
-      </c>
-      <c r="B26" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A26/d*2*PI()))</f>
-        <v>-11.8</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A26/d)*d*s/(d*PI())+s*$A26/d+s0</f>
-        <v>0.635985835757817</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A26/d)*d^2*s/(d*PI()^2)+0.5*s*$A26^2/d+s0*$A26-0.25*d*s/PI()^2</f>
-        <v>6.75753687293622</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <f aca="false">D26-$B$4</f>
-        <v>1.49503687293622</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A27)</f>
-        <v>0.4</v>
-      </c>
-      <c r="B27" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A27/d*2*PI()))</f>
-        <v>-8.15359946637562</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A27/d)*d*s/(d*PI())+s*$A27/d+s0</f>
-        <v>0.386944460204024</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A27/d)*d^2*s/(d*PI()^2)+0.5*s*$A27^2/d+s0*$A27-0.25*d*s/PI()^2</f>
-        <v>6.77013327180492</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <f aca="false">D27-$B$4</f>
-        <v>1.50763327180492</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A28)</f>
-        <v>0.425</v>
-      </c>
-      <c r="B28" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A28/d*2*PI()))</f>
-        <v>-4.86413402294881</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A28/d)*d*s/(d*PI())+s*$A28/d+s0</f>
-        <v>0.225321583169286</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A28/d)*d^2*s/(d*PI()^2)+0.5*s*$A28^2/d+s0*$A28-0.25*d*s/PI()^2</f>
-        <v>6.77761498853751</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <f aca="false">D28-$B$4</f>
-        <v>1.51511498853751</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A29)</f>
-        <v>0.45</v>
-      </c>
-      <c r="B29" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A29/d*2*PI()))</f>
-        <v>-2.25359946637562</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A29/d)*d*s/(d*PI())+s*$A29/d+s0</f>
-        <v>0.138061322564703</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A29/d)*d^2*s/(d*PI()^2)+0.5*s*$A29^2/d+s0*$A29-0.25*d*s/PI()^2</f>
-        <v>6.78202108533681</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <f aca="false">D29-$B$4</f>
-        <v>1.51952108533681</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A30)</f>
-        <v>0.475</v>
-      </c>
-      <c r="B30" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A30/d*2*PI()))</f>
-        <v>-0.577533107717188</v>
-      </c>
-      <c r="C30" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A30/d)*d*s/(d*PI())+s*$A30/d+s0</f>
-        <v>0.104828665290377</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A30/d)*d^2*s/(d*PI()^2)+0.5*s*$A30^2/d+s0*$A30-0.25*d*s/PI()^2</f>
-        <v>6.78496977112916</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <f aca="false">D30-$B$4</f>
-        <v>1.52246977112916</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
-        <f aca="false">d/$B$8*COUNT(A$11:$A31)</f>
-        <v>0.5</v>
-      </c>
-      <c r="B31" s="6" t="n">
-        <f aca="false">s/d*(1-COS($A31/d*2*PI()))</f>
+      <c r="B32" s="8" t="n">
+        <f aca="false">sd/d*(1-COS($A32/d*2*PI()))</f>
         <v>-0</v>
       </c>
-      <c r="C31" s="6" t="n">
-        <f aca="false">-0.5*SIN(2*PI()*$A31/d)*d*s/(d*PI())+s*$A31/d+s0</f>
+      <c r="C32" s="8" t="n">
+        <f aca="false">-0.5*SIN(2*PI()*$A32/d)*d*sd/(d*PI())+sd*$A32/d+s0</f>
         <v>0.0999999999999996</v>
       </c>
-      <c r="D31" s="7" t="n">
-        <f aca="false">p0+0.25*COS(2*PI()*$A31/d)*d^2*s/(d*PI()^2)+0.5*s*$A31^2/d+s0*$A31-0.25*d*s/PI()^2</f>
-        <v>6.7875</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <f aca="false">D31-$B$4</f>
-        <v>1.525</v>
-      </c>
+      <c r="D32" s="9" t="n">
+        <f aca="false">x0+0.25*COS(2*PI()*$A32/d)*d^2*sd/(d*PI()^2)+0.5*sd*$A32^2/d+s0*$A32-0.25*d*sd/PI()^2</f>
+        <v>6.025</v>
+      </c>
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>decel!$B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
